--- a/Group_Allocator.xlsx
+++ b/Group_Allocator.xlsx
@@ -9,27 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="7905" tabRatio="870" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="7905" tabRatio="870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="17" r:id="rId1"/>
     <sheet name="Student_Data" sheetId="3" r:id="rId2"/>
     <sheet name="Summary_Results" sheetId="7" r:id="rId3"/>
-    <sheet name="GPA_Chart" sheetId="515" r:id="rId4"/>
-    <sheet name="Gender_Chart" sheetId="516" r:id="rId5"/>
-    <sheet name="Civil_Chart" sheetId="517" r:id="rId6"/>
-    <sheet name="Electrical_Chart" sheetId="518" r:id="rId7"/>
-    <sheet name="CompSys_Chart" sheetId="519" r:id="rId8"/>
-    <sheet name="Software_Chart" sheetId="520" r:id="rId9"/>
-    <sheet name="Mechatronics_Chart" sheetId="521" r:id="rId10"/>
-    <sheet name="Chemmat_Chart" sheetId="522" r:id="rId11"/>
-    <sheet name="Mechanical_Chart" sheetId="523" r:id="rId12"/>
-    <sheet name="Biomedical_Chart" sheetId="524" r:id="rId13"/>
-    <sheet name="EngSci_Chart" sheetId="525" r:id="rId14"/>
-    <sheet name="European(E)_Chart" sheetId="526" r:id="rId15"/>
-    <sheet name="Pacific(E)_Chart" sheetId="527" r:id="rId16"/>
-    <sheet name="Indian(E)_Chart" sheetId="528" r:id="rId17"/>
-    <sheet name="Asian(E)_Chart" sheetId="529" r:id="rId18"/>
+    <sheet name="GPA_Chart" sheetId="530" r:id="rId4"/>
+    <sheet name="Gender_Chart" sheetId="531" r:id="rId5"/>
+    <sheet name="Civil_Chart" sheetId="532" r:id="rId6"/>
+    <sheet name="Electrical_Chart" sheetId="533" r:id="rId7"/>
+    <sheet name="CompSys_Chart" sheetId="534" r:id="rId8"/>
+    <sheet name="Software_Chart" sheetId="535" r:id="rId9"/>
+    <sheet name="Mechatronics_Chart" sheetId="536" r:id="rId10"/>
+    <sheet name="Chemmat_Chart" sheetId="537" r:id="rId11"/>
+    <sheet name="Mechanical_Chart" sheetId="538" r:id="rId12"/>
+    <sheet name="Biomedical_Chart" sheetId="539" r:id="rId13"/>
+    <sheet name="EngSci_Chart" sheetId="540" r:id="rId14"/>
+    <sheet name="European(E)_Chart" sheetId="541" r:id="rId15"/>
+    <sheet name="Pacific(E)_Chart" sheetId="542" r:id="rId16"/>
+    <sheet name="Indian(E)_Chart" sheetId="543" r:id="rId17"/>
+    <sheet name="Asian(E)_Chart" sheetId="544" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="ethnicity" localSheetId="1">OFFSET(Student_Data!$N$2,0,0,COUNTA(Student_Data!$A:$A)-1,1)</definedName>
@@ -904,7 +904,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1215,11 +1214,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="460318600"/>
-        <c:axId val="460317424"/>
+        <c:axId val="319590688"/>
+        <c:axId val="319594216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460318600"/>
+        <c:axId val="319590688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,14 +1240,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460317424"/>
+        <c:crossAx val="319594216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1256,7 +1254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460317424"/>
+        <c:axId val="319594216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -1281,21 +1279,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460318600"/>
+        <c:crossAx val="319590688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1335,7 +1331,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1500,11 +1495,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="414296520"/>
-        <c:axId val="414296912"/>
+        <c:axId val="324300240"/>
+        <c:axId val="324295928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="414296520"/>
+        <c:axId val="324300240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,14 +1521,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414296912"/>
+        <c:crossAx val="324295928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1541,7 +1535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414296912"/>
+        <c:axId val="324295928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -1566,21 +1560,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414296520"/>
+        <c:crossAx val="324300240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1620,7 +1612,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1785,11 +1776,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="422928984"/>
-        <c:axId val="603814888"/>
+        <c:axId val="324299848"/>
+        <c:axId val="324288088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="422928984"/>
+        <c:axId val="324299848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,14 +1802,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603814888"/>
+        <c:crossAx val="324288088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1826,7 +1816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603814888"/>
+        <c:axId val="324288088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -1851,21 +1841,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422928984"/>
+        <c:crossAx val="324299848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1905,7 +1893,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2070,11 +2057,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="419410720"/>
-        <c:axId val="419418168"/>
+        <c:axId val="324291616"/>
+        <c:axId val="324292008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="419410720"/>
+        <c:axId val="324291616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,14 +2083,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419418168"/>
+        <c:crossAx val="324292008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2111,7 +2097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419418168"/>
+        <c:axId val="324292008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2136,21 +2122,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419410720"/>
+        <c:crossAx val="324291616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2190,7 +2174,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2355,11 +2338,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="327666592"/>
-        <c:axId val="327668944"/>
+        <c:axId val="324292400"/>
+        <c:axId val="324297104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="327666592"/>
+        <c:axId val="324292400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,14 +2364,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="327668944"/>
+        <c:crossAx val="324297104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2396,7 +2378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="327668944"/>
+        <c:axId val="324297104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2421,21 +2403,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="327666592"/>
+        <c:crossAx val="324292400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2475,7 +2455,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2640,11 +2619,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="325137440"/>
-        <c:axId val="325141752"/>
+        <c:axId val="324293576"/>
+        <c:axId val="324294360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="325137440"/>
+        <c:axId val="324293576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,14 +2645,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="325141752"/>
+        <c:crossAx val="324294360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2681,7 +2659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325141752"/>
+        <c:axId val="324294360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2706,21 +2684,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="325137440"/>
+        <c:crossAx val="324293576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2760,7 +2736,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2925,11 +2900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="422939176"/>
-        <c:axId val="327659144"/>
+        <c:axId val="324303376"/>
+        <c:axId val="324302200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="422939176"/>
+        <c:axId val="324303376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,14 +2926,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="327659144"/>
+        <c:crossAx val="324302200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2966,7 +2940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="327659144"/>
+        <c:axId val="324302200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2991,21 +2965,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422939176"/>
+        <c:crossAx val="324303376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3045,7 +3017,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3356,11 +3327,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="460315856"/>
-        <c:axId val="460316640"/>
+        <c:axId val="319596176"/>
+        <c:axId val="319595392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="460315856"/>
+        <c:axId val="319596176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3382,14 +3353,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460316640"/>
+        <c:crossAx val="319595392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3397,7 +3367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460316640"/>
+        <c:axId val="319595392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3422,21 +3392,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460315856"/>
+        <c:crossAx val="319596176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3476,7 +3444,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3641,11 +3608,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="327672080"/>
-        <c:axId val="327674040"/>
+        <c:axId val="319593824"/>
+        <c:axId val="319594608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="327672080"/>
+        <c:axId val="319593824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3667,14 +3634,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="327674040"/>
+        <c:crossAx val="319594608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3682,7 +3648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="327674040"/>
+        <c:axId val="319594608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3707,21 +3673,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="327672080"/>
+        <c:crossAx val="319593824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3761,7 +3725,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3926,11 +3889,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="603816064"/>
-        <c:axId val="603813712"/>
+        <c:axId val="319595784"/>
+        <c:axId val="324288872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="603816064"/>
+        <c:axId val="319595784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3952,14 +3915,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603813712"/>
+        <c:crossAx val="324288872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3967,7 +3929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603813712"/>
+        <c:axId val="324288872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3992,21 +3954,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603816064"/>
+        <c:crossAx val="319595784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4046,7 +4006,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4211,11 +4170,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="603823120"/>
-        <c:axId val="603825080"/>
+        <c:axId val="324294752"/>
+        <c:axId val="324298280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="603823120"/>
+        <c:axId val="324294752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4237,14 +4196,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603825080"/>
+        <c:crossAx val="324298280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4252,7 +4210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603825080"/>
+        <c:axId val="324298280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4277,21 +4235,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603823120"/>
+        <c:crossAx val="324294752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4331,7 +4287,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4496,11 +4451,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="603800776"/>
-        <c:axId val="603802736"/>
+        <c:axId val="324290048"/>
+        <c:axId val="324290440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="603800776"/>
+        <c:axId val="324290048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4522,14 +4477,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603802736"/>
+        <c:crossAx val="324290440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4537,7 +4491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603802736"/>
+        <c:axId val="324290440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4562,21 +4516,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603800776"/>
+        <c:crossAx val="324290048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4616,7 +4568,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4781,11 +4732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="603799992"/>
-        <c:axId val="603801168"/>
+        <c:axId val="324289264"/>
+        <c:axId val="324299064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="603799992"/>
+        <c:axId val="324289264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4807,14 +4758,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603801168"/>
+        <c:crossAx val="324299064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4822,7 +4772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603801168"/>
+        <c:axId val="324299064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4847,21 +4797,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603799992"/>
+        <c:crossAx val="324289264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4901,7 +4849,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5066,11 +5013,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="603807440"/>
-        <c:axId val="603798424"/>
+        <c:axId val="324295144"/>
+        <c:axId val="324293968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="603807440"/>
+        <c:axId val="324295144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5092,14 +5039,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603798424"/>
+        <c:crossAx val="324293968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5107,7 +5053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603798424"/>
+        <c:axId val="324293968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5132,21 +5078,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603807440"/>
+        <c:crossAx val="324295144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5186,7 +5130,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5351,11 +5294,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="414291424"/>
-        <c:axId val="414290248"/>
+        <c:axId val="324297888"/>
+        <c:axId val="324289656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="414291424"/>
+        <c:axId val="324297888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5377,14 +5320,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414290248"/>
+        <c:crossAx val="324289656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5392,7 +5334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414290248"/>
+        <c:axId val="324289656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5417,21 +5359,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414291424"/>
+        <c:crossAx val="324297888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7581,8 +7521,8 @@
   </sheetPr>
   <dimension ref="A1:AF686"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23602,7 +23542,7 @@
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -24940,7 +24880,25 @@
       <ModelPaneVisible>true</ModelPaneVisible>
       <ModelSettings/>
       <FileText># ============================================================================
-# Group Allocator
+# Group Allocator - allocates students to balanced groups
+# ============================================================================
+# The MIT License (MIT)
+# Copyright (c) 2014 Michael Fairley (mfai035@aucklanduni.ac.nz)
+# Permission is hereby granted, free of charge, to any person obtaining a copy of
+# this software and associated documentation files (the "Software"), to deal in
+# the Software without restriction, including without limitation the rights to
+# use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of
+# the Software, and to permit persons to whom the Software is furnished to do so,
+# subject to the following conditions:
+# The above copyright notice and this permission notice shall be included in all
+# copies or substantial portions of the Software.
+# THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR
+# IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS
+# FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR
+# COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER
+# IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN
+# CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.
+# ============================================================================
 # Authors : Oscar Dowson odow003@aucklanduni.ac.nz
 #           Michael Fairley mfai035@aucklanduni.ac.nz
 # Date : 8 August 2014
@@ -25398,8 +25356,8 @@
 append_string = now.strftime('%Y-%m-%d_%H.%M.%S')
 instructor_workbook_name = 'Groups_InstructorView_%s' % (append_string)
 student_workbook_name = 'Groups_StudentView_%s' % (append_string)
-save_path_instructor = '%s\\%s' % (path, instructor_workbook_name)
-save_path_student = '%s\\%s' % (path, student_workbook_name)
+save_path_instructor = '%s\\%s.xlsx' % (path, instructor_workbook_name)
+save_path_student = '%s\\%s.xlsx' % (path, student_workbook_name)
 # Instructor View
 # Create new workbook
 Application.Workbooks.Add()
@@ -25491,12 +25449,14 @@
     row_index += 2
     ws.Cells(row_index, 5).Value = 'Mean GPA'
     ws.Cells(row_index, 5).Font.Bold = True
-    ws.Cells(row_index, 6).Value = '%.2f'  % gpa_mean_group[g]
+    ws.Cells(row_index, 6).Value = '%.2f' % gpa_mean_group[g]
     ws.Range(ws.Cells(row_index, 6), ws.Cells(row_index, 6)).NumberFormat = "0.00"
-    # Activate
+    # Activate and autofit
     ws.Activate()
     ws.Cells.Select()
     Application.Selection.Columns.AutoFit()
+    ws.Cells(1, 1).Select()
+wb.Worksheets('All_Groups').Activate()
 wb.Save()
 # Student View
 # Create new workbook
@@ -25567,13 +25527,12 @@
         ws.Cells(row_index, 3).Value = UPI[s]
         ws.Cells(row_index, 4).Value = specialisation[s]
         ws.Cells(row_index, 5).Value = '%s@aucklanduni.ac.nz' % UPI[s]
-        ws.Cells(row_index, 6).Value = '%.2f' % gpa[s]
-        ws.Range(ws.Cells(row_index, 6), ws.Cells(row_index, 6)).NumberFormat = "0.00"
-        ws.Cells(row_index, 7).Value = ethnicity[s]
     # Activate
     ws.Activate()
     ws.Cells.Select()
     Application.Selection.Columns.AutoFit()
+    ws.Cells(1, 1).Select()
+wb.Worksheets('All_Groups').Activate()
 wb.Save()
 </FileText>
       <ParentWorksheetName>Student_Data</ParentWorksheetName>
@@ -25589,12 +25548,9 @@
     <StoredFile>
       <FileName>Untitled</FileName>
       <LanguageName>PuLP</LanguageName>
-      <ModelPaneVisible>true</ModelPaneVisible>
+      <ModelPaneVisible>false</ModelPaneVisible>
       <ModelSettings/>
-      <FileText>wb = Application.Workbooks('Group_Allocator')
-count = Application.Worksheets.Count
-print(count)
-wb.Sheets.Add(After=wb.Sheets(count))
+      <FileText>
 </FileText>
       <ParentWorksheetName>Summary_Results</ParentWorksheetName>
     </StoredFile>
@@ -25611,7 +25567,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73ED0E46-4E24-4B74-B3AD-DE017F5F43A2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AEB1B49-4359-4359-BC5B-4D866260A6AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>

--- a/Group_Allocator.xlsx
+++ b/Group_Allocator.xlsx
@@ -9,27 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="7905" tabRatio="870" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="7905" tabRatio="870"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="17" r:id="rId1"/>
     <sheet name="Student_Data" sheetId="3" r:id="rId2"/>
     <sheet name="Summary_Results" sheetId="7" r:id="rId3"/>
-    <sheet name="GPA_Chart" sheetId="530" r:id="rId4"/>
-    <sheet name="Gender_Chart" sheetId="531" r:id="rId5"/>
-    <sheet name="Civil_Chart" sheetId="532" r:id="rId6"/>
-    <sheet name="Electrical_Chart" sheetId="533" r:id="rId7"/>
-    <sheet name="CompSys_Chart" sheetId="534" r:id="rId8"/>
-    <sheet name="Software_Chart" sheetId="535" r:id="rId9"/>
-    <sheet name="Mechatronics_Chart" sheetId="536" r:id="rId10"/>
-    <sheet name="Chemmat_Chart" sheetId="537" r:id="rId11"/>
-    <sheet name="Mechanical_Chart" sheetId="538" r:id="rId12"/>
-    <sheet name="Biomedical_Chart" sheetId="539" r:id="rId13"/>
-    <sheet name="EngSci_Chart" sheetId="540" r:id="rId14"/>
-    <sheet name="European(E)_Chart" sheetId="541" r:id="rId15"/>
-    <sheet name="Pacific(E)_Chart" sheetId="542" r:id="rId16"/>
-    <sheet name="Indian(E)_Chart" sheetId="543" r:id="rId17"/>
-    <sheet name="Asian(E)_Chart" sheetId="544" r:id="rId18"/>
+    <sheet name="GPA_Chart" sheetId="605" r:id="rId4"/>
+    <sheet name="Gender_Chart" sheetId="606" r:id="rId5"/>
+    <sheet name="Civil_Chart" sheetId="607" r:id="rId6"/>
+    <sheet name="Electrical_Chart" sheetId="608" r:id="rId7"/>
+    <sheet name="CompSys_Chart" sheetId="609" r:id="rId8"/>
+    <sheet name="Software_Chart" sheetId="610" r:id="rId9"/>
+    <sheet name="Mechatronics_Chart" sheetId="611" r:id="rId10"/>
+    <sheet name="Chemmat_Chart" sheetId="612" r:id="rId11"/>
+    <sheet name="Mechanical_Chart" sheetId="613" r:id="rId12"/>
+    <sheet name="Biomedical_Chart" sheetId="614" r:id="rId13"/>
+    <sheet name="EngSci_Chart" sheetId="615" r:id="rId14"/>
+    <sheet name="European(E)_Chart" sheetId="616" r:id="rId15"/>
+    <sheet name="Pacific(E)_Chart" sheetId="617" r:id="rId16"/>
+    <sheet name="Indian(E)_Chart" sheetId="618" r:id="rId17"/>
+    <sheet name="Asian(E)_Chart" sheetId="619" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="ethnicity" localSheetId="1">OFFSET(Student_Data!$N$2,0,0,COUNTA(Student_Data!$A:$A)-1,1)</definedName>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="95">
   <si>
     <t>Specialisation</t>
   </si>
@@ -389,6 +389,36 @@
   </si>
   <si>
     <t>CompSys</t>
+  </si>
+  <si>
+    <t>gpa_min</t>
+  </si>
+  <si>
+    <t>gpa_q1</t>
+  </si>
+  <si>
+    <t>gpa_median</t>
+  </si>
+  <si>
+    <t>gpa_q3</t>
+  </si>
+  <si>
+    <t>gpa_max</t>
+  </si>
+  <si>
+    <t>gpa_d_min</t>
+  </si>
+  <si>
+    <t>gpa_d_q1</t>
+  </si>
+  <si>
+    <t>gpa_d_median</t>
+  </si>
+  <si>
+    <t>gpa_d_q3</t>
+  </si>
+  <si>
+    <t>gpa_d_max</t>
   </si>
 </sst>
 </file>
@@ -891,169 +921,156 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Mean GPA and Variance of GPA</a:t>
+              <a:t>GPA spread per group (lines bottom to top = Min, Q1, Median, Q3, Max)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>GPA</c:v>
-          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="5B9BD5"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:noFill/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Summary_Results!$A$3:$A$22</c:f>
+              <c:f>Summary_Results!$Z$3:$Z$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>2.98</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>2.78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>3.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>3.56</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>2.31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>2.74</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>2.56</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>3.23</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary_Results!$E$3:$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.08</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.0599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.1100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.09</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.0599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.0599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.04</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.03</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.99</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1062,144 +1079,410 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>GPA Variance</c:v>
-          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="ED7D31"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:noFill/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
             <c:numRef>
-              <c:f>Summary_Results!$A$3:$A$22</c:f>
+              <c:f>Summary_Results!$AA$3:$AA$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>1.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="A5A5A5"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Summary_Results!$F$3:$F$22</c:f>
+              <c:f>Summary_Results!$AB$3:$AB$22</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.96</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary_Results!$AC$3:$AC$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.98</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.92</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="4472C4"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:noFill/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary_Results!$AD$3:$AD$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94</c:v>
+                  <c:v>2.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.96</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.04</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.95</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.02</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1214,11 +1497,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="319590688"/>
-        <c:axId val="319594216"/>
+        <c:overlap val="100"/>
+        <c:axId val="399350784"/>
+        <c:axId val="399342944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319590688"/>
+        <c:axId val="399350784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,11 +1511,21 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1240,13 +1534,73 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319594216"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399342944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1254,7 +1608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319594216"/>
+        <c:axId val="399342944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -1262,15 +1616,38 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ"/>
@@ -1279,25 +1656,108 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319590688"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399350784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
 </c:chartSpace>
 </file>
 
@@ -1326,11 +1786,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number from Biomedical in each group</a:t>
+              <a:t>Biomedical students in each group</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1495,11 +1956,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="324300240"/>
-        <c:axId val="324295928"/>
+        <c:axId val="511137368"/>
+        <c:axId val="511138544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="324300240"/>
+        <c:axId val="511137368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,13 +1982,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324295928"/>
+        <c:crossAx val="511138544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1535,7 +1997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324295928"/>
+        <c:axId val="511138544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -1560,19 +2022,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324300240"/>
+        <c:crossAx val="511137368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1607,11 +2071,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number from EngSci in each group</a:t>
+              <a:t>Engsci students in each group</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1776,11 +2241,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="324299848"/>
-        <c:axId val="324288088"/>
+        <c:axId val="978058992"/>
+        <c:axId val="978059384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="324299848"/>
+        <c:axId val="978058992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,13 +2267,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324288088"/>
+        <c:crossAx val="978059384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1816,7 +2282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324288088"/>
+        <c:axId val="978059384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -1841,19 +2307,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324299848"/>
+        <c:crossAx val="978058992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1888,11 +2356,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number of European in each group</a:t>
+              <a:t>European students in each group</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2057,11 +2526,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="324291616"/>
-        <c:axId val="324292008"/>
+        <c:axId val="1135444328"/>
+        <c:axId val="1135435312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="324291616"/>
+        <c:axId val="1135444328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,13 +2552,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324292008"/>
+        <c:crossAx val="1135435312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2097,7 +2567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324292008"/>
+        <c:axId val="1135435312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2122,19 +2592,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324291616"/>
+        <c:crossAx val="1135444328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2169,11 +2641,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number of Pacific in each group</a:t>
+              <a:t>Pacific students in each group</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2338,11 +2811,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="324292400"/>
-        <c:axId val="324297104"/>
+        <c:axId val="399351176"/>
+        <c:axId val="399346472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="324292400"/>
+        <c:axId val="399351176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,13 +2837,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324297104"/>
+        <c:crossAx val="399346472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2378,7 +2852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324297104"/>
+        <c:axId val="399346472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2403,19 +2877,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324292400"/>
+        <c:crossAx val="399351176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2450,11 +2926,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number of Indian in each group</a:t>
+              <a:t>Indian students in each group</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2619,11 +3096,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="324293576"/>
-        <c:axId val="324294360"/>
+        <c:axId val="1129756384"/>
+        <c:axId val="1129761480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="324293576"/>
+        <c:axId val="1129756384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,13 +3122,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324294360"/>
+        <c:crossAx val="1129761480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2659,7 +3137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324294360"/>
+        <c:axId val="1129761480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2684,19 +3162,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324293576"/>
+        <c:crossAx val="1129756384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2731,11 +3211,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number of Asian in each group</a:t>
+              <a:t>Asian students in each group</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2900,11 +3381,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="324303376"/>
-        <c:axId val="324302200"/>
+        <c:axId val="511102480"/>
+        <c:axId val="511103656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="324303376"/>
+        <c:axId val="511102480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,13 +3407,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324302200"/>
+        <c:crossAx val="511103656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2940,7 +3422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324302200"/>
+        <c:axId val="511103656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2965,19 +3447,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324303376"/>
+        <c:crossAx val="511102480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3017,6 +3501,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3327,11 +3812,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="319596176"/>
-        <c:axId val="319595392"/>
+        <c:axId val="887083744"/>
+        <c:axId val="887074336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319596176"/>
+        <c:axId val="887083744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,13 +3838,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319595392"/>
+        <c:crossAx val="887074336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3367,7 +3853,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319595392"/>
+        <c:axId val="887074336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3392,19 +3878,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319596176"/>
+        <c:crossAx val="887083744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3439,11 +3927,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number from Civil in each group</a:t>
+              <a:t>Civil students in each group</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3608,11 +4097,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="319593824"/>
-        <c:axId val="319594608"/>
+        <c:axId val="399332360"/>
+        <c:axId val="399330400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319593824"/>
+        <c:axId val="399332360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3634,13 +4123,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319594608"/>
+        <c:crossAx val="399330400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3648,7 +4138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319594608"/>
+        <c:axId val="399330400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3673,19 +4163,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319593824"/>
+        <c:crossAx val="399332360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3720,11 +4212,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number from Electrical in each group</a:t>
+              <a:t>Electrical students in each group</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3889,11 +4382,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="319595784"/>
-        <c:axId val="324288872"/>
+        <c:axId val="399346864"/>
+        <c:axId val="399347256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319595784"/>
+        <c:axId val="399346864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,13 +4408,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324288872"/>
+        <c:crossAx val="399347256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3929,7 +4423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324288872"/>
+        <c:axId val="399347256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3954,19 +4448,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319595784"/>
+        <c:crossAx val="399346864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4001,11 +4497,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number from CompSys in each group</a:t>
+              <a:t>Compsys students in each group</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4170,11 +4667,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="324294752"/>
-        <c:axId val="324298280"/>
+        <c:axId val="970825064"/>
+        <c:axId val="970818400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="324294752"/>
+        <c:axId val="970825064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,13 +4693,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324298280"/>
+        <c:crossAx val="970818400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4210,7 +4708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324298280"/>
+        <c:axId val="970818400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4235,19 +4733,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324294752"/>
+        <c:crossAx val="970825064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4282,11 +4782,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number from Software in each group</a:t>
+              <a:t>Software students in each group</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4451,11 +4952,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="324290048"/>
-        <c:axId val="324290440"/>
+        <c:axId val="970823104"/>
+        <c:axId val="970827416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="324290048"/>
+        <c:axId val="970823104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4477,13 +4978,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324290440"/>
+        <c:crossAx val="970827416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4491,7 +4993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324290440"/>
+        <c:axId val="970827416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4516,19 +5018,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324290048"/>
+        <c:crossAx val="970823104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4563,11 +5067,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number from Mechatronics in each group</a:t>
+              <a:t>Mechatronics students in each group</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4732,11 +5237,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="324289264"/>
-        <c:axId val="324299064"/>
+        <c:axId val="970822712"/>
+        <c:axId val="970823888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="324289264"/>
+        <c:axId val="970822712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4758,13 +5263,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324299064"/>
+        <c:crossAx val="970823888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4772,7 +5278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324299064"/>
+        <c:axId val="970823888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4797,19 +5303,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324289264"/>
+        <c:crossAx val="970822712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4844,11 +5352,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number from Chemmat in each group</a:t>
+              <a:t>Chemmat students in each group</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5013,11 +5522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="324295144"/>
-        <c:axId val="324293968"/>
+        <c:axId val="978065656"/>
+        <c:axId val="978060560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="324295144"/>
+        <c:axId val="978065656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5039,13 +5548,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324293968"/>
+        <c:crossAx val="978060560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5053,7 +5563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324293968"/>
+        <c:axId val="978060560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5078,19 +5588,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324295144"/>
+        <c:crossAx val="978065656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5125,11 +5637,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number from Mechanical in each group</a:t>
+              <a:t>Mechanical students in each group</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5294,11 +5807,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="324297888"/>
-        <c:axId val="324289656"/>
+        <c:axId val="978057032"/>
+        <c:axId val="978064088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="324297888"/>
+        <c:axId val="978057032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5320,13 +5833,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324289656"/>
+        <c:crossAx val="978064088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5334,7 +5848,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324289656"/>
+        <c:axId val="978064088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5359,19 +5873,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324297888"/>
+        <c:crossAx val="978057032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5379,6 +5895,551 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6731,7 +7792,7 @@
   </sheetPr>
   <dimension ref="A1:AF81"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
@@ -7521,8 +8582,8 @@
   </sheetPr>
   <dimension ref="A1:AF686"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23540,7 +24601,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
@@ -23565,10 +24626,22 @@
     <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="43" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="43" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>2</v>
       </c>
@@ -23626,8 +24699,38 @@
       <c r="S1" s="30" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>67</v>
       </c>
@@ -23686,7 +24789,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>1</v>
       </c>
@@ -23744,8 +24847,38 @@
       <c r="S3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>2.89</v>
+      </c>
+      <c r="V3">
+        <v>4.25</v>
+      </c>
+      <c r="W3">
+        <v>4.72</v>
+      </c>
+      <c r="X3">
+        <v>5.71</v>
+      </c>
+      <c r="Y3">
+        <v>7.17</v>
+      </c>
+      <c r="Z3">
+        <v>2.89</v>
+      </c>
+      <c r="AA3">
+        <v>1.36</v>
+      </c>
+      <c r="AB3">
+        <v>0.47</v>
+      </c>
+      <c r="AC3">
+        <v>0.98</v>
+      </c>
+      <c r="AD3">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>2</v>
       </c>
@@ -23803,8 +24936,38 @@
       <c r="S4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>2.63</v>
+      </c>
+      <c r="V4">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="W4">
+        <v>4.88</v>
+      </c>
+      <c r="X4">
+        <v>5.85</v>
+      </c>
+      <c r="Y4">
+        <v>6.81</v>
+      </c>
+      <c r="Z4">
+        <v>2.63</v>
+      </c>
+      <c r="AA4">
+        <v>1.67</v>
+      </c>
+      <c r="AB4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AC4">
+        <v>0.97</v>
+      </c>
+      <c r="AD4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>3</v>
       </c>
@@ -23862,8 +25025,38 @@
       <c r="S5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>2.94</v>
+      </c>
+      <c r="V5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W5">
+        <v>5.33</v>
+      </c>
+      <c r="X5">
+        <v>5.84</v>
+      </c>
+      <c r="Y5">
+        <v>6.27</v>
+      </c>
+      <c r="Z5">
+        <v>2.94</v>
+      </c>
+      <c r="AA5">
+        <v>1.45</v>
+      </c>
+      <c r="AB5">
+        <v>0.94</v>
+      </c>
+      <c r="AC5">
+        <v>0.51</v>
+      </c>
+      <c r="AD5">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>4</v>
       </c>
@@ -23921,8 +25114,38 @@
       <c r="S6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>2.58</v>
+      </c>
+      <c r="V6">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="W6">
+        <v>4.93</v>
+      </c>
+      <c r="X6">
+        <v>5.39</v>
+      </c>
+      <c r="Y6">
+        <v>7.52</v>
+      </c>
+      <c r="Z6">
+        <v>2.58</v>
+      </c>
+      <c r="AA6">
+        <v>1.98</v>
+      </c>
+      <c r="AB6">
+        <v>0.37</v>
+      </c>
+      <c r="AC6">
+        <v>0.46</v>
+      </c>
+      <c r="AD6">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>5</v>
       </c>
@@ -23980,8 +25203,38 @@
       <c r="S7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>3.25</v>
+      </c>
+      <c r="V7">
+        <v>4.53</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>5.57</v>
+      </c>
+      <c r="Y7">
+        <v>8.01</v>
+      </c>
+      <c r="Z7">
+        <v>3.25</v>
+      </c>
+      <c r="AA7">
+        <v>1.28</v>
+      </c>
+      <c r="AB7">
+        <v>0.47</v>
+      </c>
+      <c r="AC7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AD7">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>6</v>
       </c>
@@ -24039,8 +25292,38 @@
       <c r="S8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>3.55</v>
+      </c>
+      <c r="V8">
+        <v>4.22</v>
+      </c>
+      <c r="W8">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="X8">
+        <v>5.79</v>
+      </c>
+      <c r="Y8">
+        <v>7.39</v>
+      </c>
+      <c r="Z8">
+        <v>3.55</v>
+      </c>
+      <c r="AA8">
+        <v>0.67</v>
+      </c>
+      <c r="AB8">
+        <v>0.89</v>
+      </c>
+      <c r="AC8">
+        <v>0.68</v>
+      </c>
+      <c r="AD8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>7</v>
       </c>
@@ -24098,8 +25381,38 @@
       <c r="S9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>2.83</v>
+      </c>
+      <c r="V9">
+        <v>4.46</v>
+      </c>
+      <c r="W9">
+        <v>5.13</v>
+      </c>
+      <c r="X9">
+        <v>5.58</v>
+      </c>
+      <c r="Y9">
+        <v>6.88</v>
+      </c>
+      <c r="Z9">
+        <v>2.83</v>
+      </c>
+      <c r="AA9">
+        <v>1.63</v>
+      </c>
+      <c r="AB9">
+        <v>0.67</v>
+      </c>
+      <c r="AC9">
+        <v>0.45</v>
+      </c>
+      <c r="AD9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>8</v>
       </c>
@@ -24157,8 +25470,38 @@
       <c r="S10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>3.25</v>
+      </c>
+      <c r="V10">
+        <v>4.47</v>
+      </c>
+      <c r="W10">
+        <v>5.21</v>
+      </c>
+      <c r="X10">
+        <v>5.59</v>
+      </c>
+      <c r="Y10">
+        <v>7.07</v>
+      </c>
+      <c r="Z10">
+        <v>3.25</v>
+      </c>
+      <c r="AA10">
+        <v>1.22</v>
+      </c>
+      <c r="AB10">
+        <v>0.74</v>
+      </c>
+      <c r="AC10">
+        <v>0.38</v>
+      </c>
+      <c r="AD10">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>9</v>
       </c>
@@ -24216,8 +25559,38 @@
       <c r="S11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>1.9</v>
+      </c>
+      <c r="V11">
+        <v>4.7</v>
+      </c>
+      <c r="W11">
+        <v>5.19</v>
+      </c>
+      <c r="X11">
+        <v>5.7</v>
+      </c>
+      <c r="Y11">
+        <v>6.79</v>
+      </c>
+      <c r="Z11">
+        <v>1.9</v>
+      </c>
+      <c r="AA11">
+        <v>2.8</v>
+      </c>
+      <c r="AB11">
+        <v>0.49</v>
+      </c>
+      <c r="AC11">
+        <v>0.51</v>
+      </c>
+      <c r="AD11">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>10</v>
       </c>
@@ -24275,8 +25648,38 @@
       <c r="S12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>2.98</v>
+      </c>
+      <c r="V12">
+        <v>4.51</v>
+      </c>
+      <c r="W12">
+        <v>4.95</v>
+      </c>
+      <c r="X12">
+        <v>5.52</v>
+      </c>
+      <c r="Y12">
+        <v>7.31</v>
+      </c>
+      <c r="Z12">
+        <v>2.98</v>
+      </c>
+      <c r="AA12">
+        <v>1.53</v>
+      </c>
+      <c r="AB12">
+        <v>0.44</v>
+      </c>
+      <c r="AC12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AD12">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>11</v>
       </c>
@@ -24334,8 +25737,38 @@
       <c r="S13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>2.78</v>
+      </c>
+      <c r="V13">
+        <v>4.26</v>
+      </c>
+      <c r="W13">
+        <v>5.21</v>
+      </c>
+      <c r="X13">
+        <v>5.76</v>
+      </c>
+      <c r="Y13">
+        <v>6.98</v>
+      </c>
+      <c r="Z13">
+        <v>2.78</v>
+      </c>
+      <c r="AA13">
+        <v>1.47</v>
+      </c>
+      <c r="AB13">
+        <v>0.96</v>
+      </c>
+      <c r="AC13">
+        <v>0.54</v>
+      </c>
+      <c r="AD13">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>12</v>
       </c>
@@ -24393,8 +25826,38 @@
       <c r="S14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>3.23</v>
+      </c>
+      <c r="V14">
+        <v>4.47</v>
+      </c>
+      <c r="W14">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="X14">
+        <v>5.91</v>
+      </c>
+      <c r="Y14">
+        <v>6.74</v>
+      </c>
+      <c r="Z14">
+        <v>3.23</v>
+      </c>
+      <c r="AA14">
+        <v>1.24</v>
+      </c>
+      <c r="AB14">
+        <v>0.42</v>
+      </c>
+      <c r="AC14">
+        <v>1.02</v>
+      </c>
+      <c r="AD14">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>13</v>
       </c>
@@ -24452,8 +25915,38 @@
       <c r="S15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>3.1</v>
+      </c>
+      <c r="V15">
+        <v>4.57</v>
+      </c>
+      <c r="W15">
+        <v>4.82</v>
+      </c>
+      <c r="X15">
+        <v>5.8</v>
+      </c>
+      <c r="Y15">
+        <v>7.72</v>
+      </c>
+      <c r="Z15">
+        <v>3.1</v>
+      </c>
+      <c r="AA15">
+        <v>1.47</v>
+      </c>
+      <c r="AB15">
+        <v>0.25</v>
+      </c>
+      <c r="AC15">
+        <v>0.97</v>
+      </c>
+      <c r="AD15">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>14</v>
       </c>
@@ -24511,8 +26004,38 @@
       <c r="S16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>3.56</v>
+      </c>
+      <c r="V16">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="W16">
+        <v>5.18</v>
+      </c>
+      <c r="X16">
+        <v>5.84</v>
+      </c>
+      <c r="Y16">
+        <v>7.47</v>
+      </c>
+      <c r="Z16">
+        <v>3.56</v>
+      </c>
+      <c r="AA16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AB16">
+        <v>1.06</v>
+      </c>
+      <c r="AC16">
+        <v>0.66</v>
+      </c>
+      <c r="AD16">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>15</v>
       </c>
@@ -24570,8 +26093,38 @@
       <c r="S17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>2.31</v>
+      </c>
+      <c r="V17">
+        <v>4.47</v>
+      </c>
+      <c r="W17">
+        <v>5.14</v>
+      </c>
+      <c r="X17">
+        <v>5.83</v>
+      </c>
+      <c r="Y17">
+        <v>6.55</v>
+      </c>
+      <c r="Z17">
+        <v>2.31</v>
+      </c>
+      <c r="AA17">
+        <v>2.17</v>
+      </c>
+      <c r="AB17">
+        <v>0.66</v>
+      </c>
+      <c r="AC17">
+        <v>0.7</v>
+      </c>
+      <c r="AD17">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>16</v>
       </c>
@@ -24629,8 +26182,38 @@
       <c r="S18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>3.08</v>
+      </c>
+      <c r="V18">
+        <v>4.45</v>
+      </c>
+      <c r="W18">
+        <v>4.72</v>
+      </c>
+      <c r="X18">
+        <v>5.6</v>
+      </c>
+      <c r="Y18">
+        <v>7.7</v>
+      </c>
+      <c r="Z18">
+        <v>3.08</v>
+      </c>
+      <c r="AA18">
+        <v>1.37</v>
+      </c>
+      <c r="AB18">
+        <v>0.27</v>
+      </c>
+      <c r="AC18">
+        <v>0.88</v>
+      </c>
+      <c r="AD18">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>17</v>
       </c>
@@ -24688,8 +26271,38 @@
       <c r="S19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>2.74</v>
+      </c>
+      <c r="V19">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="W19">
+        <v>5.05</v>
+      </c>
+      <c r="X19">
+        <v>5.65</v>
+      </c>
+      <c r="Y19">
+        <v>6.9</v>
+      </c>
+      <c r="Z19">
+        <v>2.74</v>
+      </c>
+      <c r="AA19">
+        <v>1.78</v>
+      </c>
+      <c r="AB19">
+        <v>0.53</v>
+      </c>
+      <c r="AC19">
+        <v>0.59</v>
+      </c>
+      <c r="AD19">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>18</v>
       </c>
@@ -24747,8 +26360,38 @@
       <c r="S20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>2.56</v>
+      </c>
+      <c r="V20">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="W20">
+        <v>5.23</v>
+      </c>
+      <c r="X20">
+        <v>5.74</v>
+      </c>
+      <c r="Y20">
+        <v>6.7</v>
+      </c>
+      <c r="Z20">
+        <v>2.56</v>
+      </c>
+      <c r="AA20">
+        <v>1.88</v>
+      </c>
+      <c r="AB20">
+        <v>0.79</v>
+      </c>
+      <c r="AC20">
+        <v>0.52</v>
+      </c>
+      <c r="AD20">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>19</v>
       </c>
@@ -24806,8 +26449,38 @@
       <c r="S21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <v>3.23</v>
+      </c>
+      <c r="V21">
+        <v>4.28</v>
+      </c>
+      <c r="W21">
+        <v>4.82</v>
+      </c>
+      <c r="X21">
+        <v>5.74</v>
+      </c>
+      <c r="Y21">
+        <v>6.91</v>
+      </c>
+      <c r="Z21">
+        <v>3.23</v>
+      </c>
+      <c r="AA21">
+        <v>1.05</v>
+      </c>
+      <c r="AB21">
+        <v>0.54</v>
+      </c>
+      <c r="AC21">
+        <v>0.92</v>
+      </c>
+      <c r="AD21">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>20</v>
       </c>
@@ -24864,6 +26537,36 @@
       </c>
       <c r="S22">
         <v>6</v>
+      </c>
+      <c r="U22">
+        <v>3.4</v>
+      </c>
+      <c r="V22">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="W22">
+        <v>5.2</v>
+      </c>
+      <c r="X22">
+        <v>5.67</v>
+      </c>
+      <c r="Y22">
+        <v>7.06</v>
+      </c>
+      <c r="Z22">
+        <v>3.4</v>
+      </c>
+      <c r="AA22">
+        <v>0.74</v>
+      </c>
+      <c r="AB22">
+        <v>1.06</v>
+      </c>
+      <c r="AC22">
+        <v>0.48</v>
+      </c>
+      <c r="AD22">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>
@@ -24877,7 +26580,7 @@
     <StoredFile>
       <FileName>Untitled</FileName>
       <LanguageName>PuLP</LanguageName>
-      <ModelPaneVisible>true</ModelPaneVisible>
+      <ModelPaneVisible>false</ModelPaneVisible>
       <ModelSettings/>
       <FileText># ============================================================================
 # Group Allocator - allocates students to balanced groups
@@ -24885,14 +26588,14 @@
 # The MIT License (MIT)
 # Copyright (c) 2014 Michael Fairley (mfai035@aucklanduni.ac.nz)
 # Permission is hereby granted, free of charge, to any person obtaining a copy of
-# this software and associated documentation files (the "Software"), to deal in
+# this software and associated documentation files (the 'Software'), to deal in
 # the Software without restriction, including without limitation the rights to
 # use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of
 # the Software, and to permit persons to whom the Software is furnished to do so,
 # subject to the following conditions:
 # The above copyright notice and this permission notice shall be included in all
 # copies or substantial portions of the Software.
-# THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR
+# THE SOFTWARE IS PROVIDED 'AS IS', WITHOUT WARRANTY OF ANY KIND, EXPRESS OR
 # IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS
 # FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR
 # COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER
@@ -24905,6 +26608,7 @@
 #
 # ============================================================================
 from pulp import *
+from System import Array
 import datetime
 problem = LpProblem('ENGGEN403', LpMinimize)
 print('Creating model...')
@@ -25213,12 +26917,51 @@
     for e in ETHNICITIES:
         col_index += 1
         ws.Cells(cell_index, col_index).Value = ethnicities_group[e][g]
+# Insert data for box plots
+col_index += 1
+ws.Cells(1, col_index + 1).Value = 'gpa_min'
+ws.Cells(1, col_index + 2).Value = 'gpa_q1'
+ws.Cells(1, col_index + 3).Value = 'gpa_median'
+ws.Cells(1, col_index + 4).Value = 'gpa_q3'
+ws.Cells(1, col_index + 5).Value = 'gpa_max'
+ws.Cells(1, col_index + 6).Value = 'gpa_d_min'
+ws.Cells(1, col_index + 7).Value = 'gpa_d_q1'
+ws.Cells(1, col_index + 8).Value = 'gpa_d_median'
+ws.Cells(1, col_index + 9).Value = 'gpa_d_q3'
+ws.Cells(1, col_index + 10).Value = 'gpa_d_max'
+# Create array for each group containing gpas
+data_summary = {}
+for g in GROUPS:
+    array = Array.CreateInstance(object, len(students_in_group[g]))
+    for i in range(len(students_in_group[g])):
+        student = students_in_group[g][i]
+        array[i] = gpa[student]
+    min_gpa = Application.WorksheetFunction.Min(array)
+    q1_gpa = Application.WorksheetFunction.Quartile(array, 1)
+    med_gpa = Application.WorksheetFunction.Median(array)
+    q3_gpa = Application.WorksheetFunction.Quartile(array, 3)
+    max_gpa = Application.WorksheetFunction.Max(array)
+    data_summary[g] = [min_gpa, q1_gpa, med_gpa, q3_gpa, max_gpa]
+row_index = 2
+for g in GROUPS:
+    row_index += 1
+    ws.Cells(row_index, col_index + 1).Value = '%.2f' % data_summary[g][0]
+    ws.Cells(row_index, col_index + 2).Value = '%.2f' % data_summary[g][1]
+    ws.Cells(row_index, col_index + 3).Value = '%.2f' % data_summary[g][2]
+    ws.Cells(row_index, col_index + 4).Value = '%.2f' % data_summary[g][3]
+    ws.Cells(row_index, col_index + 5).Value = '%.2f' % data_summary[g][4]
+    # Differences needed for charting
+    ws.Cells(row_index, col_index + 6).Value = '%.2f' % data_summary[g][0]
+    ws.Cells(row_index, col_index + 7).Value = '%.2f' % (data_summary[g][1] -  data_summary[g][0])
+    ws.Cells(row_index, col_index + 8).Value = '%.2f' % (data_summary[g][2] -  data_summary[g][1])
+    ws.Cells(row_index, col_index + 9).Value = '%.2f' % (data_summary[g][3] -  data_summary[g][2])
+    ws.Cells(row_index, col_index + 10).Value = '%.2f' % (data_summary[g][4] -  data_summary[g][3])
 # Autofit columns in Summary_Results
 ws.Activate()
 ws.Cells.Select()
 Application.Selection.Columns.AutoFit()
-ws.Range(ws.Cells(2, 5), ws.Cells(number_groups+2, 6)).NumberFormat = "0.00"
-ws.Range(ws.Cells(2, 1), ws.Cells(2, 6 + len(SPECIALISATIONS) + len(ETHNICITIES))).Style = "Good"
+ws.Range(ws.Cells(2, 5), ws.Cells(number_groups+2, 6)).NumberFormat = '0.00'
+ws.Range(ws.Cells(2, 1), ws.Cells(2, 6 + len(SPECIALISATIONS) + len(ETHNICITIES))).Style = 'Good'
 ws.Range(ws.cells(1, 1), ws.Cells(number_groups+2, 1)).Borders(10).LineStyle = 1
 ws.Range(ws.cells(1, 1), ws.Cells(number_groups+2, 1)).HorizontalAlignment = -4131
 ws.Cells(number_groups+5, 1).Select()
@@ -25230,34 +26973,77 @@
         Application.DisplayAlerts = False
         sheet.Delete()
         Application.DisplayAlerts = True
-x_axis_range = ws.Range(ws.Cells(3, 1), ws.Cells(2 + number_groups, 1))
-# GPA mean and variance graph
+# GPA Box Plot Chart
+# Select data range
 print('Charting GPA . . .')
-Application.Worksheets('Summary_Results').Activate()
-ws.Cells(number_groups+5, 1).Select()
-Application.Worksheets('Summary_Results').Shapes.AddChart(201, 54).Select()
+ws.Range(ws.Cells(3, col_index + 6), ws.Cells(2 + number_groups, col_index + 10)).Select()
+Application.Worksheets('Summary_Results').Shapes.AddChart2(297, 52).Select()
 a = Application.ActiveChart
-a.SeriesCollection().NewSeries()
-a.FullSeriesCollection(1).Name = "GPA"
-a.FullSeriesCollection(1).Values = ws.Range(ws.Cells(3, 5), ws.Cells(2 + number_groups, 5))
-a.FullSeriesCollection(1).XValues = x_axis_range
-a.SeriesCollection().NewSeries()
-a.FullSeriesCollection(2).Name = "GPA Variance"
-a.FullSeriesCollection(2).Values = ws.Range(ws.Cells(3, 6), ws.Cells(2 + number_groups, 6))
-a.FullSeriesCollection(2).XValues = x_axis_range
+a.FullSeriesCollection(1).Select()
+Application.Selection.Format.Fill.Visible = 0
+Application.Selection.Format.Line.Visible = 0
+a.FullSeriesCollection(2).Select()
+Application.Selection.Format.Fill.Visible = 0
+Application.Selection.Format.Line.Visible = 0
+a.FullSeriesCollection(2).HasErrorBars = True
+#a.FullSeriesCollection(2).ErrorBars.Select()
+a.FullSeriesCollection(2).ErrorBar(Direction=1, Include=3, Type=2, Amount=100)
+a.FullSeriesCollection(5).Select()
+Application.Selection.Format.Fill.Visible = 0
+Application.Selection.Format.Line.Visible = 0
+a.FullSeriesCollection(4).HasErrorBars = True
+a.FullSeriesCollection(4).ErrorBar(Direction=1, Include=2, Type=2, Amount=100)
+a.FullSeriesCollection(4).Select()
+Application.Selection.Format.Fill.Visible = 0
+Application.Selection.Format.Line.Visible = 1
+Application.Selection.Format.Line.ForeColor.ObjectThemeColor = 13
+a.FullSeriesCollection(3).Select()
+Application.Selection.Format.Fill.Visible = 0
+Application.Selection.Format.Line.Visible = 1
+Application.Selection.Format.Line.ForeColor.ObjectThemeColor = 13
 a.SetElement(2)
 a.SetElement(306)
 a.SetElement(301)
 a.SetElement(102)
-a.ChartTitle.Text = "Mean GPA and Variance of GPA"
+a.Legend.Select()
+Application.Selection.Delete()
+a.ChartTitle.Text = 'GPA spread per group (lines bottom to top = Min, Q1, Median, Q3, Max)'
 a.Axes(1, 1).HasTitle = True
-a.Axes(1, 1).AxisTitle.Text = "Group"
+a.Axes(1, 1).AxisTitle.Text = 'Group'
 a.Axes(2, 1).HasTitle = True
-a.Axes(2, 1).AxisTitle.Text = "GPA"
+a.Axes(2, 1).AxisTitle.Text = 'GPA'
 a.Axes(2).MaximumScale = 9
 a.Axes(2).MinimumScale = 0
-a.Location(Where=1, Name="GPA_Chart")
+a.Location(Where=1, Name='GPA_Chart')
 a.deselect()
+# GPA mean and variance graph
+# print('Charting GPA . . .')
+# Application.Worksheets('Summary_Results').Activate()
+# ws.Cells(number_groups+5, 1).Select()
+# Application.Worksheets('Summary_Results').Shapes.AddChart(201, 54).Select()
+# a = Application.ActiveChart
+# a.SeriesCollection().NewSeries()
+# a.FullSeriesCollection(1).Name = 'GPA'
+# a.FullSeriesCollection(1).Values = ws.Range(ws.Cells(3, 5), ws.Cells(2 + number_groups, 5))
+# a.FullSeriesCollection(1).XValues = x_axis_range
+# a.SeriesCollection().NewSeries()
+# a.FullSeriesCollection(2).Name = 'GPA Variance'
+# a.FullSeriesCollection(2).Values = ws.Range(ws.Cells(3, 6), ws.Cells(2 + number_groups, 6))
+# a.FullSeriesCollection(2).XValues = x_axis_range
+# a.SetElement(2)
+# a.SetElement(306)
+# a.SetElement(301)
+# a.SetElement(102)
+# a.ChartTitle.Text = 'Mean GPA and Variance of GPA'
+# a.Axes(1, 1).HasTitle = True
+# a.Axes(1, 1).AxisTitle.Text = 'Group'
+# a.Axes(2, 1).HasTitle = True
+# a.Axes(2, 1).AxisTitle.Text = 'GPA'
+# a.Axes(2).MaximumScale = 9
+# a.Axes(2).MinimumScale = 0
+# a.Location(Where=1, Name='GPA_Chart')
+# a.deselect()
+x_axis_range = ws.Range(ws.Cells(3, 1), ws.Cells(2 + number_groups, 1))
 # Gender
 print('Charting Gender . . .')
 Application.Worksheets('Summary_Results').Activate()
@@ -25265,25 +27051,25 @@
 Application.Worksheets('Summary_Results').Shapes.AddChart(201, 54).Select()
 a = Application.ActiveChart
 a.SeriesCollection().NewSeries()
-a.FullSeriesCollection(1).Name = "Male"
+a.FullSeriesCollection(1).Name = 'Male'
 a.FullSeriesCollection(1).Values = ws.Range(ws.Cells(3, 3), ws.Cells(2 + number_groups, 3))
 a.FullSeriesCollection(1).XValues = x_axis_range
 a.SeriesCollection().NewSeries()
-a.FullSeriesCollection(2).Name = "Female"
+a.FullSeriesCollection(2).Name = 'Female'
 a.FullSeriesCollection(2).Values = ws.Range(ws.Cells(3, 4), ws.Cells(2 + number_groups, 4))
 a.FullSeriesCollection(2).XValues = x_axis_range
 a.SetElement(2)
 a.SetElement(306)
 a.SetElement(301)
 a.SetElement(102)
-a.ChartTitle.Text = "Number of Males and Females in each group"
+a.ChartTitle.Text = 'Number of Males and Females in each group'
 a.Axes(1, 1).HasTitle = True
-a.Axes(1, 1).AxisTitle.Text = "Group"
+a.Axes(1, 1).AxisTitle.Text = 'Group'
 a.Axes(2, 1).HasTitle = True
-a.Axes(2, 1).AxisTitle.Text = "Number of Students"
+a.Axes(2, 1).AxisTitle.Text = 'Number of Students'
 a.Axes(2).MaximumScale = m2 + 1
 a.Axes(2).MinimumScale = 0
-a.Location(Where=1, Name="Gender_Chart")
+a.Location(Where=1, Name='Gender_Chart')
 a.deselect()
 # Specialisations
 print('Charting Specialisations . . .')
@@ -25305,14 +27091,14 @@
     a.SetElement(306)
     a.SetElement(301)
     a.SetElement(102)
-    a.ChartTitle.Text = "Number from %s in each group" % s
+    a.ChartTitle.Text = '%s students in each group' % s.title()
     a.Axes(1, 1).HasTitle = True
-    a.Axes(1, 1).AxisTitle.Text = "Group"
+    a.Axes(1, 1).AxisTitle.Text = 'Group'
     a.Axes(2, 1).HasTitle = True
-    a.Axes(2, 1).AxisTitle.Text = "Number of Students"
+    a.Axes(2, 1).AxisTitle.Text = 'Number of Students'
     a.Axes(2).MaximumScale = m2 + 1
     a.Axes(2).MinimumScale = 0
-    title = "%s_Chart" % s
+    title = '%s_Chart' % s
     a.Location(Where=1, Name=title)
     wb.Sheets(title).Tab.ThemeColor = 9
     wb.Sheets(title).Tab.TintAndShade = 0
@@ -25336,14 +27122,14 @@
     a.SetElement(306)
     a.SetElement(301)
     a.SetElement(102)
-    a.ChartTitle.Text = "Number of %s in each group" % e
+    a.ChartTitle.Text = '%s students in each group' % e.title()
     a.Axes(1, 1).HasTitle = True
-    a.Axes(1, 1).AxisTitle.Text = "Group"
+    a.Axes(1, 1).AxisTitle.Text = 'Group'
     a.Axes(2, 1).HasTitle = True
-    a.Axes(2, 1).AxisTitle.Text = "Number of Students"
+    a.Axes(2, 1).AxisTitle.Text = 'Number of Students'
     a.Axes(2).MaximumScale = m2 + 1
     a.Axes(2).MinimumScale = 0
-    title = "%s(E)_Chart" % e
+    title = '%s(E)_Chart' % e
     a.Location(Where=1, Name=title)
     wb.Sheets(title).Tab.ThemeColor = 6
     wb.Sheets(title).Tab.TintAndShade = 0
@@ -25395,7 +27181,7 @@
         ws.Cells(row_index, 4).Value = specialisation[s]
         ws.Cells(row_index, 5).Value = '%s@aucklanduni.ac.nz' % UPI[s]
         ws.Cells(row_index, 6).Value = '%.2f' % gpa[s]
-        ws.Range(ws.Cells(row_index, 6), ws.Cells(row_index, 6)).NumberFormat = "0.00"
+        ws.Range(ws.Cells(row_index, 6), ws.Cells(row_index, 6)).NumberFormat = '0.00'
         ws.Cells(row_index, 7).Value = ethnicity[s]
         # Space between each group
     row_index += 1
@@ -25443,14 +27229,14 @@
         ws.Cells(row_index, 4).Value = specialisation[s]
         ws.Cells(row_index, 5).Value = '%s@aucklanduni.ac.nz' % UPI[s]
         ws.Cells(row_index, 6).Value = '%.2f' % gpa[s]
-        ws.Range(ws.Cells(row_index, 6), ws.Cells(row_index, 6)).NumberFormat = "0.00"
+        ws.Range(ws.Cells(row_index, 6), ws.Cells(row_index, 6)).NumberFormat = '0.00'
         ws.Cells(row_index, 7).Value = ethnicity[s]
     # Mean GPA
     row_index += 2
     ws.Cells(row_index, 5).Value = 'Mean GPA'
     ws.Cells(row_index, 5).Font.Bold = True
     ws.Cells(row_index, 6).Value = '%.2f' % gpa_mean_group[g]
-    ws.Range(ws.Cells(row_index, 6), ws.Cells(row_index, 6)).NumberFormat = "0.00"
+    ws.Range(ws.Cells(row_index, 6), ws.Cells(row_index, 6)).NumberFormat = '0.00'
     # Activate and autofit
     ws.Activate()
     ws.Cells.Select()
@@ -25567,7 +27353,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AEB1B49-4359-4359-BC5B-4D866260A6AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69B6A1AB-E3EC-452A-8098-015E174BC117}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>

--- a/Group_Allocator.xlsx
+++ b/Group_Allocator.xlsx
@@ -9,27 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="7905" tabRatio="870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="7905" tabRatio="870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="17" r:id="rId1"/>
     <sheet name="Student_Data" sheetId="3" r:id="rId2"/>
     <sheet name="Summary_Results" sheetId="7" r:id="rId3"/>
-    <sheet name="GPA_Chart" sheetId="605" r:id="rId4"/>
-    <sheet name="Gender_Chart" sheetId="606" r:id="rId5"/>
-    <sheet name="Civil_Chart" sheetId="607" r:id="rId6"/>
-    <sheet name="Electrical_Chart" sheetId="608" r:id="rId7"/>
-    <sheet name="CompSys_Chart" sheetId="609" r:id="rId8"/>
-    <sheet name="Software_Chart" sheetId="610" r:id="rId9"/>
-    <sheet name="Mechatronics_Chart" sheetId="611" r:id="rId10"/>
-    <sheet name="Chemmat_Chart" sheetId="612" r:id="rId11"/>
-    <sheet name="Mechanical_Chart" sheetId="613" r:id="rId12"/>
-    <sheet name="Biomedical_Chart" sheetId="614" r:id="rId13"/>
-    <sheet name="EngSci_Chart" sheetId="615" r:id="rId14"/>
-    <sheet name="European(E)_Chart" sheetId="616" r:id="rId15"/>
-    <sheet name="Pacific(E)_Chart" sheetId="617" r:id="rId16"/>
-    <sheet name="Indian(E)_Chart" sheetId="618" r:id="rId17"/>
-    <sheet name="Asian(E)_Chart" sheetId="619" r:id="rId18"/>
+    <sheet name="GPA_Chart" sheetId="620" r:id="rId4"/>
+    <sheet name="Gender_Chart" sheetId="621" r:id="rId5"/>
+    <sheet name="Civil_Chart" sheetId="622" r:id="rId6"/>
+    <sheet name="Electrical_Chart" sheetId="623" r:id="rId7"/>
+    <sheet name="CompSys_Chart" sheetId="624" r:id="rId8"/>
+    <sheet name="Software_Chart" sheetId="625" r:id="rId9"/>
+    <sheet name="Mechatronics_Chart" sheetId="626" r:id="rId10"/>
+    <sheet name="Chemmat_Chart" sheetId="627" r:id="rId11"/>
+    <sheet name="Mechanical_Chart" sheetId="628" r:id="rId12"/>
+    <sheet name="Biomedical_Chart" sheetId="629" r:id="rId13"/>
+    <sheet name="EngSci_Chart" sheetId="630" r:id="rId14"/>
+    <sheet name="European(E)_Chart" sheetId="631" r:id="rId15"/>
+    <sheet name="Pacific(E)_Chart" sheetId="632" r:id="rId16"/>
+    <sheet name="Indian(E)_Chart" sheetId="633" r:id="rId17"/>
+    <sheet name="Asian(E)_Chart" sheetId="634" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="ethnicity" localSheetId="1">OFFSET(Student_Data!$N$2,0,0,COUNTA(Student_Data!$A:$A)-1,1)</definedName>
@@ -921,21 +921,11 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -944,35 +934,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1106,19 +1068,6 @@
             <c:errValType val="percentage"/>
             <c:noEndCap val="0"/>
             <c:val val="100"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:errBars>
           <c:val>
             <c:numRef>
@@ -1200,7 +1149,6 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -1292,7 +1240,6 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -1309,19 +1256,6 @@
             <c:errValType val="percentage"/>
             <c:noEndCap val="0"/>
             <c:val val="100"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:errBars>
           <c:val>
             <c:numRef>
@@ -1498,11 +1432,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="399350784"/>
-        <c:axId val="399342944"/>
+        <c:axId val="342211112"/>
+        <c:axId val="342218952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="399350784"/>
+        <c:axId val="342211112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1511,21 +1445,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1534,73 +1458,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="399342944"/>
+        <c:crossAx val="342218952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1608,7 +1471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399342944"/>
+        <c:axId val="342218952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -1616,38 +1479,15 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ"/>
@@ -1656,108 +1496,21 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="399350784"/>
+        <c:crossAx val="342211112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
 </c:chartSpace>
 </file>
 
@@ -1791,7 +1544,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1956,11 +1708,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="511137368"/>
-        <c:axId val="511138544"/>
+        <c:axId val="347085280"/>
+        <c:axId val="347092728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="511137368"/>
+        <c:axId val="347085280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1982,14 +1734,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511138544"/>
+        <c:crossAx val="347092728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1997,7 +1748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="511138544"/>
+        <c:axId val="347092728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2022,21 +1773,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511137368"/>
+        <c:crossAx val="347085280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2076,7 +1825,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2241,11 +1989,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="978058992"/>
-        <c:axId val="978059384"/>
+        <c:axId val="347097040"/>
+        <c:axId val="347089984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="978058992"/>
+        <c:axId val="347097040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2267,14 +2015,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="978059384"/>
+        <c:crossAx val="347089984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2282,7 +2029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="978059384"/>
+        <c:axId val="347089984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2307,21 +2054,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="978058992"/>
+        <c:crossAx val="347097040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2361,7 +2106,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2526,11 +2270,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1135444328"/>
-        <c:axId val="1135435312"/>
+        <c:axId val="347086848"/>
+        <c:axId val="347086456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1135444328"/>
+        <c:axId val="347086848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2552,14 +2296,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1135435312"/>
+        <c:crossAx val="347086456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2567,7 +2310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1135435312"/>
+        <c:axId val="347086456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2592,21 +2335,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1135444328"/>
+        <c:crossAx val="347086848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2646,7 +2387,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2811,11 +2551,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="399351176"/>
-        <c:axId val="399346472"/>
+        <c:axId val="347088416"/>
+        <c:axId val="347090376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="399351176"/>
+        <c:axId val="347088416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2837,14 +2577,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="399346472"/>
+        <c:crossAx val="347090376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2852,7 +2591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399346472"/>
+        <c:axId val="347090376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2877,21 +2616,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="399351176"/>
+        <c:crossAx val="347088416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2931,7 +2668,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3096,11 +2832,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1129756384"/>
-        <c:axId val="1129761480"/>
+        <c:axId val="347092336"/>
+        <c:axId val="347093120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1129756384"/>
+        <c:axId val="347092336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3122,14 +2858,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1129761480"/>
+        <c:crossAx val="347093120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3137,7 +2872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1129761480"/>
+        <c:axId val="347093120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3162,21 +2897,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1129756384"/>
+        <c:crossAx val="347092336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3216,7 +2949,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3381,11 +3113,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="511102480"/>
-        <c:axId val="511103656"/>
+        <c:axId val="347094688"/>
+        <c:axId val="347099784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="511102480"/>
+        <c:axId val="347094688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3407,14 +3139,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511103656"/>
+        <c:crossAx val="347099784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3422,7 +3153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="511103656"/>
+        <c:axId val="347099784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3447,21 +3178,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511102480"/>
+        <c:crossAx val="347094688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3501,7 +3230,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3812,11 +3540,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="887083744"/>
-        <c:axId val="887074336"/>
+        <c:axId val="342214248"/>
+        <c:axId val="342211896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="887083744"/>
+        <c:axId val="342214248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3838,14 +3566,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="887074336"/>
+        <c:crossAx val="342211896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3853,7 +3580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="887074336"/>
+        <c:axId val="342211896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3878,21 +3605,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="887083744"/>
+        <c:crossAx val="342214248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3932,7 +3657,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4097,11 +3821,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="399332360"/>
-        <c:axId val="399330400"/>
+        <c:axId val="342222480"/>
+        <c:axId val="342224440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="399332360"/>
+        <c:axId val="342222480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4123,14 +3847,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="399330400"/>
+        <c:crossAx val="342224440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4138,7 +3861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399330400"/>
+        <c:axId val="342224440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4163,21 +3886,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="399332360"/>
+        <c:crossAx val="342222480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4217,7 +3938,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4382,11 +4102,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="399346864"/>
-        <c:axId val="399347256"/>
+        <c:axId val="342223656"/>
+        <c:axId val="342224048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="399346864"/>
+        <c:axId val="342223656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4408,14 +4128,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="399347256"/>
+        <c:crossAx val="342224048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4423,7 +4142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399347256"/>
+        <c:axId val="342224048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4448,21 +4167,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="399346864"/>
+        <c:crossAx val="342223656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4502,7 +4219,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4667,11 +4383,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="970825064"/>
-        <c:axId val="970818400"/>
+        <c:axId val="347089200"/>
+        <c:axId val="347095080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="970825064"/>
+        <c:axId val="347089200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4693,14 +4409,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="970818400"/>
+        <c:crossAx val="347095080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4708,7 +4423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="970818400"/>
+        <c:axId val="347095080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4733,21 +4448,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="970825064"/>
+        <c:crossAx val="347089200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4787,7 +4500,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4952,11 +4664,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="970823104"/>
-        <c:axId val="970827416"/>
+        <c:axId val="347089592"/>
+        <c:axId val="347091160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="970823104"/>
+        <c:axId val="347089592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4978,14 +4690,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="970827416"/>
+        <c:crossAx val="347091160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4993,7 +4704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="970827416"/>
+        <c:axId val="347091160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5018,21 +4729,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="970823104"/>
+        <c:crossAx val="347089592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5072,7 +4781,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5237,11 +4945,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="970822712"/>
-        <c:axId val="970823888"/>
+        <c:axId val="347095864"/>
+        <c:axId val="347085672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="970822712"/>
+        <c:axId val="347095864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5263,14 +4971,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="970823888"/>
+        <c:crossAx val="347085672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5278,7 +4985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="970823888"/>
+        <c:axId val="347085672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5303,21 +5010,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="970822712"/>
+        <c:crossAx val="347095864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5357,7 +5062,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5522,11 +5226,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="978065656"/>
-        <c:axId val="978060560"/>
+        <c:axId val="347091552"/>
+        <c:axId val="347084888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="978065656"/>
+        <c:axId val="347091552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5548,14 +5252,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="978060560"/>
+        <c:crossAx val="347084888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5563,7 +5266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="978060560"/>
+        <c:axId val="347084888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5588,21 +5291,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="978065656"/>
+        <c:crossAx val="347091552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5642,7 +5343,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5807,11 +5507,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="978057032"/>
-        <c:axId val="978064088"/>
+        <c:axId val="347096648"/>
+        <c:axId val="347091944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="978057032"/>
+        <c:axId val="347096648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5833,14 +5533,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="978064088"/>
+        <c:crossAx val="347091944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5848,7 +5547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="978064088"/>
+        <c:axId val="347091944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5873,21 +5572,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="978057032"/>
+        <c:crossAx val="347096648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5897,558 +5594,13 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6461,7 +5613,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6474,7 +5626,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6487,7 +5639,7 @@
     <tabColor theme="5"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6500,7 +5652,7 @@
     <tabColor theme="5"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6513,7 +5665,7 @@
     <tabColor theme="5"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6526,7 +5678,7 @@
     <tabColor theme="5"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6539,7 +5691,7 @@
     <tabColor theme="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6552,7 +5704,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6565,7 +5717,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6578,7 +5730,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6591,7 +5743,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6604,7 +5756,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6617,7 +5769,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6630,7 +5782,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6659,8 +5811,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1419224" y="514350"/>
-          <a:ext cx="10262185" cy="3781425"/>
+          <a:off x="1419224" y="495300"/>
+          <a:ext cx="10971798" cy="3633788"/>
           <a:chOff x="1419224" y="314325"/>
           <a:chExt cx="10262185" cy="3162300"/>
         </a:xfrm>
@@ -6923,8 +6075,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1438275" y="13192125"/>
-          <a:ext cx="13750936" cy="3381375"/>
+          <a:off x="1538288" y="12658725"/>
+          <a:ext cx="14617711" cy="3276600"/>
           <a:chOff x="1419225" y="11658600"/>
           <a:chExt cx="13750936" cy="2238375"/>
         </a:xfrm>
@@ -7017,8 +6169,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12992100" y="3667125"/>
-          <a:ext cx="8825452" cy="7579500"/>
+          <a:off x="13777913" y="3529013"/>
+          <a:ext cx="9425527" cy="7269937"/>
           <a:chOff x="12992100" y="3667125"/>
           <a:chExt cx="8825452" cy="7579500"/>
         </a:xfrm>
@@ -7123,7 +6275,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:ext cx="8659091" cy="6277841"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7150,7 +6302,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:ext cx="8659091" cy="6277841"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7177,7 +6329,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:ext cx="8659091" cy="6277841"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7204,7 +6356,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:ext cx="8659091" cy="6277841"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7231,7 +6383,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:ext cx="8659091" cy="6277841"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7258,7 +6410,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:ext cx="8659091" cy="6277841"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7285,7 +6437,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:ext cx="8659091" cy="6277841"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7312,7 +6464,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:ext cx="8659091" cy="6277841"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7339,7 +6491,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:ext cx="8659091" cy="6277841"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7366,7 +6518,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:ext cx="8659091" cy="6277841"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7393,7 +6545,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:ext cx="8659091" cy="6277841"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7420,7 +6572,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:ext cx="8659091" cy="6277841"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7447,7 +6599,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:ext cx="8659091" cy="6277841"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7474,7 +6626,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:ext cx="8659091" cy="6277841"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7501,7 +6653,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:ext cx="8659091" cy="6277841"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7792,18 +6944,18 @@
   </sheetPr>
   <dimension ref="A1:AF81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="22" max="22" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.265625" customWidth="1"/>
+    <col min="22" max="22" width="22.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:32" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:32" ht="23.65" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A2" s="14" t="s">
         <v>34</v>
       </c>
@@ -7842,7 +6994,7 @@
       <c r="AE2" s="17"/>
       <c r="AF2" s="18"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -7876,7 +7028,7 @@
       <c r="AE3" s="47"/>
       <c r="AF3" s="48"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -7908,7 +7060,7 @@
       <c r="AE4" s="47"/>
       <c r="AF4" s="48"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -7940,7 +7092,7 @@
       <c r="AE5" s="47"/>
       <c r="AF5" s="48"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -7972,7 +7124,7 @@
       <c r="AE6" s="47"/>
       <c r="AF6" s="48"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -8004,7 +7156,7 @@
       <c r="AE7" s="20"/>
       <c r="AF7" s="21"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -8038,7 +7190,7 @@
       <c r="AE8" s="20"/>
       <c r="AF8" s="21"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -8076,7 +7228,7 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="7"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -8112,7 +7264,7 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="7"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -8144,7 +7296,7 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="7"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -8180,7 +7332,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="10"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -8200,7 +7352,7 @@
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -8225,7 +7377,7 @@
       <c r="V14" s="41"/>
       <c r="W14" s="41"/>
     </row>
-    <row r="15" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -8259,7 +7411,7 @@
       <c r="AE15" s="40"/>
       <c r="AF15" s="40"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -8279,7 +7431,7 @@
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -8299,7 +7451,7 @@
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -8319,8 +7471,8 @@
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="20" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A20" s="14" t="s">
         <v>36</v>
       </c>
@@ -8336,7 +7488,7 @@
       <c r="I20" s="50"/>
       <c r="J20" s="51"/>
     </row>
-    <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="U29" s="42" t="s">
         <v>69</v>
       </c>
@@ -8344,8 +7496,8 @@
       <c r="W29" s="42"/>
       <c r="X29" s="42"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="37" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A37" s="14" t="s">
         <v>37</v>
       </c>
@@ -8361,8 +7513,8 @@
       <c r="I37" s="50"/>
       <c r="J37" s="51"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="43" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A43" s="14" t="s">
         <v>39</v>
       </c>
@@ -8378,7 +7530,7 @@
       <c r="I43" s="50"/>
       <c r="J43" s="51"/>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
@@ -8388,7 +7540,7 @@
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
     </row>
-    <row r="61" spans="1:11" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A61" s="14" t="s">
         <v>41</v>
       </c>
@@ -8405,7 +7557,7 @@
       <c r="J61" s="39"/>
       <c r="K61" s="25"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -8417,7 +7569,7 @@
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -8429,7 +7581,7 @@
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -8441,7 +7593,7 @@
       <c r="J64" s="25"/>
       <c r="K64" s="25"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -8453,7 +7605,7 @@
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
@@ -8463,7 +7615,7 @@
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
     </row>
-    <row r="74" spans="1:11" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A74" s="14" t="s">
         <v>42</v>
       </c>
@@ -8479,7 +7631,7 @@
       <c r="I74" s="38"/>
       <c r="J74" s="39"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -8490,7 +7642,7 @@
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -8501,7 +7653,7 @@
       <c r="I76" s="25"/>
       <c r="J76" s="25"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -8512,7 +7664,7 @@
       <c r="I77" s="25"/>
       <c r="J77" s="25"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -8523,7 +7675,7 @@
       <c r="I78" s="25"/>
       <c r="J78" s="25"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -8534,7 +7686,7 @@
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -8545,7 +7697,7 @@
       <c r="I80" s="25"/>
       <c r="J80" s="25"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -8582,39 +7734,39 @@
   </sheetPr>
   <dimension ref="A1:AF686"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="22" max="22" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1328125" customWidth="1"/>
+    <col min="22" max="22" width="39.73046875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.3984375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
         <v>5</v>
       </c>
@@ -8679,7 +7831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1000000</v>
       </c>
@@ -8708,7 +7860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1000001</v>
       </c>
@@ -8737,7 +7889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1000002</v>
       </c>
@@ -8760,7 +7912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1000003</v>
       </c>
@@ -8788,7 +7940,7 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1000004</v>
       </c>
@@ -8825,7 +7977,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1000005</v>
       </c>
@@ -8857,7 +8009,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="27"/>
     </row>
-    <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1000006</v>
       </c>
@@ -8889,7 +8041,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="27"/>
     </row>
-    <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1000007</v>
       </c>
@@ -8921,7 +8073,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="27"/>
     </row>
-    <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1000008</v>
       </c>
@@ -8953,7 +8105,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="27"/>
     </row>
-    <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1000009</v>
       </c>
@@ -8985,7 +8137,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="27"/>
     </row>
-    <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1000010</v>
       </c>
@@ -9012,7 +8164,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="27"/>
     </row>
-    <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1000011</v>
       </c>
@@ -9049,7 +8201,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1000012</v>
       </c>
@@ -9086,7 +8238,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1000013</v>
       </c>
@@ -9113,7 +8265,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1000014</v>
       </c>
@@ -9145,7 +8297,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1000015</v>
       </c>
@@ -9177,7 +8329,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1000016</v>
       </c>
@@ -9209,7 +8361,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1000017</v>
       </c>
@@ -9232,7 +8384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1000018</v>
       </c>
@@ -9260,7 +8412,7 @@
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1000019</v>
       </c>
@@ -9286,7 +8438,7 @@
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1000020</v>
       </c>
@@ -9309,7 +8461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1000021</v>
       </c>
@@ -9332,7 +8484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1000022</v>
       </c>
@@ -9355,7 +8507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1000023</v>
       </c>
@@ -9378,7 +8530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1000024</v>
       </c>
@@ -9401,7 +8553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1000025</v>
       </c>
@@ -9424,7 +8576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1000026</v>
       </c>
@@ -9447,7 +8599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1000027</v>
       </c>
@@ -9470,7 +8622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1000028</v>
       </c>
@@ -9493,7 +8645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1000029</v>
       </c>
@@ -9516,7 +8668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1000030</v>
       </c>
@@ -9539,7 +8691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1000031</v>
       </c>
@@ -9562,7 +8714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1000032</v>
       </c>
@@ -9585,7 +8737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1000033</v>
       </c>
@@ -9608,7 +8760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1000034</v>
       </c>
@@ -9631,7 +8783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1000035</v>
       </c>
@@ -9654,7 +8806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1000036</v>
       </c>
@@ -9677,7 +8829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1000037</v>
       </c>
@@ -9700,7 +8852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1000038</v>
       </c>
@@ -9723,7 +8875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1000039</v>
       </c>
@@ -9746,7 +8898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1000040</v>
       </c>
@@ -9769,7 +8921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1000041</v>
       </c>
@@ -9792,7 +8944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1000042</v>
       </c>
@@ -9815,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1000043</v>
       </c>
@@ -9838,7 +8990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1000044</v>
       </c>
@@ -9861,7 +9013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1000045</v>
       </c>
@@ -9884,7 +9036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1000046</v>
       </c>
@@ -9907,7 +9059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1000047</v>
       </c>
@@ -9930,7 +9082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1000048</v>
       </c>
@@ -9953,7 +9105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1000049</v>
       </c>
@@ -9976,7 +9128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>1000050</v>
       </c>
@@ -9999,7 +9151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>1000051</v>
       </c>
@@ -10022,7 +9174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>1000052</v>
       </c>
@@ -10045,7 +9197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>1000053</v>
       </c>
@@ -10068,7 +9220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>1000054</v>
       </c>
@@ -10091,7 +9243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>1000055</v>
       </c>
@@ -10114,7 +9266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>1000056</v>
       </c>
@@ -10137,7 +9289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>1000057</v>
       </c>
@@ -10160,7 +9312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1000058</v>
       </c>
@@ -10183,7 +9335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>1000059</v>
       </c>
@@ -10206,7 +9358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>1000060</v>
       </c>
@@ -10229,7 +9381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>1000061</v>
       </c>
@@ -10252,7 +9404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>1000062</v>
       </c>
@@ -10275,7 +9427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>1000063</v>
       </c>
@@ -10298,7 +9450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>1000064</v>
       </c>
@@ -10321,7 +9473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>1000065</v>
       </c>
@@ -10344,7 +9496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>1000066</v>
       </c>
@@ -10367,7 +9519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>1000067</v>
       </c>
@@ -10390,7 +9542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>1000068</v>
       </c>
@@ -10413,7 +9565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>1000069</v>
       </c>
@@ -10436,7 +9588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>1000070</v>
       </c>
@@ -10459,7 +9611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>1000071</v>
       </c>
@@ -10482,7 +9634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>1000072</v>
       </c>
@@ -10505,7 +9657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>1000073</v>
       </c>
@@ -10528,7 +9680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>1000074</v>
       </c>
@@ -10551,7 +9703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>1000075</v>
       </c>
@@ -10574,7 +9726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>1000076</v>
       </c>
@@ -10597,7 +9749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>1000077</v>
       </c>
@@ -10620,7 +9772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>1000078</v>
       </c>
@@ -10643,7 +9795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>1000079</v>
       </c>
@@ -10666,7 +9818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>1000080</v>
       </c>
@@ -10689,7 +9841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>1000081</v>
       </c>
@@ -10712,7 +9864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>1000082</v>
       </c>
@@ -10735,7 +9887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>1000083</v>
       </c>
@@ -10758,7 +9910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>1000084</v>
       </c>
@@ -10781,7 +9933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>1000085</v>
       </c>
@@ -10804,7 +9956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>1000086</v>
       </c>
@@ -10827,7 +9979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>1000087</v>
       </c>
@@ -10850,7 +10002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>1000088</v>
       </c>
@@ -10873,7 +10025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>1000089</v>
       </c>
@@ -10896,7 +10048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>1000090</v>
       </c>
@@ -10919,7 +10071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>1000091</v>
       </c>
@@ -10942,7 +10094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>1000092</v>
       </c>
@@ -10965,7 +10117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>1000093</v>
       </c>
@@ -10988,7 +10140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>1000094</v>
       </c>
@@ -11011,7 +10163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>1000095</v>
       </c>
@@ -11034,7 +10186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>1000096</v>
       </c>
@@ -11057,7 +10209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>1000097</v>
       </c>
@@ -11080,7 +10232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>1000098</v>
       </c>
@@ -11103,7 +10255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>1000099</v>
       </c>
@@ -11126,7 +10278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>1000100</v>
       </c>
@@ -11149,7 +10301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>1000101</v>
       </c>
@@ -11172,7 +10324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>1000102</v>
       </c>
@@ -11195,7 +10347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>1000103</v>
       </c>
@@ -11218,7 +10370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>1000104</v>
       </c>
@@ -11241,7 +10393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>1000105</v>
       </c>
@@ -11264,7 +10416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>1000106</v>
       </c>
@@ -11287,7 +10439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>1000107</v>
       </c>
@@ -11310,7 +10462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>1000108</v>
       </c>
@@ -11333,7 +10485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>1000109</v>
       </c>
@@ -11356,7 +10508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>1000110</v>
       </c>
@@ -11379,7 +10531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>1000111</v>
       </c>
@@ -11402,7 +10554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>1000112</v>
       </c>
@@ -11425,7 +10577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>1000113</v>
       </c>
@@ -11448,7 +10600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>1000114</v>
       </c>
@@ -11471,7 +10623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>1000115</v>
       </c>
@@ -11494,7 +10646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>1000116</v>
       </c>
@@ -11517,7 +10669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>1000117</v>
       </c>
@@ -11540,7 +10692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>1000118</v>
       </c>
@@ -11563,7 +10715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>1000119</v>
       </c>
@@ -11586,7 +10738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>1000120</v>
       </c>
@@ -11609,7 +10761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>1000121</v>
       </c>
@@ -11632,7 +10784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>1000122</v>
       </c>
@@ -11655,7 +10807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>1000123</v>
       </c>
@@ -11678,7 +10830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>1000124</v>
       </c>
@@ -11701,7 +10853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>1000125</v>
       </c>
@@ -11724,7 +10876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>1000126</v>
       </c>
@@ -11747,7 +10899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>1000127</v>
       </c>
@@ -11770,7 +10922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>1000128</v>
       </c>
@@ -11793,7 +10945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>1000129</v>
       </c>
@@ -11816,7 +10968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>1000130</v>
       </c>
@@ -11839,7 +10991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>1000131</v>
       </c>
@@ -11862,7 +11014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>1000132</v>
       </c>
@@ -11885,7 +11037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>1000133</v>
       </c>
@@ -11908,7 +11060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>1000134</v>
       </c>
@@ -11931,7 +11083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>1000135</v>
       </c>
@@ -11954,7 +11106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>1000136</v>
       </c>
@@ -11977,7 +11129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>1000137</v>
       </c>
@@ -12000,7 +11152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>1000138</v>
       </c>
@@ -12023,7 +11175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>1000139</v>
       </c>
@@ -12046,7 +11198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>1000140</v>
       </c>
@@ -12069,7 +11221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>1000141</v>
       </c>
@@ -12092,7 +11244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>1000142</v>
       </c>
@@ -12115,7 +11267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>1000143</v>
       </c>
@@ -12138,7 +11290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>1000144</v>
       </c>
@@ -12161,7 +11313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>1000145</v>
       </c>
@@ -12184,7 +11336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>1000146</v>
       </c>
@@ -12207,7 +11359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>1000147</v>
       </c>
@@ -12230,7 +11382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>1000148</v>
       </c>
@@ -12253,7 +11405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>1000149</v>
       </c>
@@ -12276,7 +11428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>1000150</v>
       </c>
@@ -12299,7 +11451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>1000151</v>
       </c>
@@ -12322,7 +11474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>1000152</v>
       </c>
@@ -12345,7 +11497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>1000153</v>
       </c>
@@ -12368,7 +11520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>1000154</v>
       </c>
@@ -12391,7 +11543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>1000155</v>
       </c>
@@ -12414,7 +11566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>1000156</v>
       </c>
@@ -12437,7 +11589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>1000157</v>
       </c>
@@ -12460,7 +11612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>1000158</v>
       </c>
@@ -12483,7 +11635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>1000159</v>
       </c>
@@ -12506,7 +11658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>1000160</v>
       </c>
@@ -12529,7 +11681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>1000161</v>
       </c>
@@ -12552,7 +11704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>1000162</v>
       </c>
@@ -12575,7 +11727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>1000163</v>
       </c>
@@ -12598,7 +11750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>1000164</v>
       </c>
@@ -12621,7 +11773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>1000165</v>
       </c>
@@ -12644,7 +11796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>1000166</v>
       </c>
@@ -12667,7 +11819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>1000167</v>
       </c>
@@ -12690,7 +11842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>1000168</v>
       </c>
@@ -12713,7 +11865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>1000169</v>
       </c>
@@ -12736,7 +11888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>1000170</v>
       </c>
@@ -12759,7 +11911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>1000171</v>
       </c>
@@ -12782,7 +11934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>1000172</v>
       </c>
@@ -12805,7 +11957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>1000173</v>
       </c>
@@ -12828,7 +11980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>1000174</v>
       </c>
@@ -12851,7 +12003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>1000175</v>
       </c>
@@ -12874,7 +12026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>1000176</v>
       </c>
@@ -12897,7 +12049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>1000177</v>
       </c>
@@ -12920,7 +12072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>1000178</v>
       </c>
@@ -12943,7 +12095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>1000179</v>
       </c>
@@ -12966,7 +12118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>1000180</v>
       </c>
@@ -12989,7 +12141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>1000181</v>
       </c>
@@ -13012,7 +12164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>1000182</v>
       </c>
@@ -13035,7 +12187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>1000183</v>
       </c>
@@ -13058,7 +12210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>1000184</v>
       </c>
@@ -13081,7 +12233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>1000185</v>
       </c>
@@ -13104,7 +12256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>1000186</v>
       </c>
@@ -13127,7 +12279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>1000187</v>
       </c>
@@ -13150,7 +12302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>1000188</v>
       </c>
@@ -13173,7 +12325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>1000189</v>
       </c>
@@ -13196,7 +12348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>1000190</v>
       </c>
@@ -13219,7 +12371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>1000191</v>
       </c>
@@ -13242,7 +12394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>1000192</v>
       </c>
@@ -13265,7 +12417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>1000193</v>
       </c>
@@ -13288,7 +12440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>1000194</v>
       </c>
@@ -13311,7 +12463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>1000195</v>
       </c>
@@ -13334,7 +12486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>1000196</v>
       </c>
@@ -13357,7 +12509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>1000197</v>
       </c>
@@ -13380,7 +12532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>1000198</v>
       </c>
@@ -13403,7 +12555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>1000199</v>
       </c>
@@ -13426,7 +12578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>1000200</v>
       </c>
@@ -13449,7 +12601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>1000201</v>
       </c>
@@ -13472,7 +12624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>1000202</v>
       </c>
@@ -13495,7 +12647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>1000203</v>
       </c>
@@ -13518,7 +12670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>1000204</v>
       </c>
@@ -13541,7 +12693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>1000205</v>
       </c>
@@ -13564,7 +12716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>1000206</v>
       </c>
@@ -13587,7 +12739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>1000207</v>
       </c>
@@ -13610,7 +12762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>1000208</v>
       </c>
@@ -13633,7 +12785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>1000209</v>
       </c>
@@ -13656,7 +12808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>1000210</v>
       </c>
@@ -13679,7 +12831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>1000211</v>
       </c>
@@ -13702,7 +12854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>1000212</v>
       </c>
@@ -13725,7 +12877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>1000213</v>
       </c>
@@ -13748,7 +12900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>1000214</v>
       </c>
@@ -13771,7 +12923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>1000215</v>
       </c>
@@ -13794,7 +12946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>1000216</v>
       </c>
@@ -13817,7 +12969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>1000217</v>
       </c>
@@ -13840,7 +12992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>1000218</v>
       </c>
@@ -13863,7 +13015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>1000219</v>
       </c>
@@ -13886,7 +13038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>1000220</v>
       </c>
@@ -13909,7 +13061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>1000221</v>
       </c>
@@ -13932,7 +13084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>1000222</v>
       </c>
@@ -13955,7 +13107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>1000223</v>
       </c>
@@ -13978,7 +13130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>1000224</v>
       </c>
@@ -14001,7 +13153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>1000225</v>
       </c>
@@ -14024,7 +13176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>1000226</v>
       </c>
@@ -14047,7 +13199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>1000227</v>
       </c>
@@ -14070,7 +13222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>1000228</v>
       </c>
@@ -14093,7 +13245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>1000229</v>
       </c>
@@ -14116,7 +13268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>1000230</v>
       </c>
@@ -14139,7 +13291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>1000231</v>
       </c>
@@ -14162,7 +13314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>1000232</v>
       </c>
@@ -14185,7 +13337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>1000233</v>
       </c>
@@ -14208,7 +13360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>1000234</v>
       </c>
@@ -14231,7 +13383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>1000235</v>
       </c>
@@ -14254,7 +13406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>1000236</v>
       </c>
@@ -14277,7 +13429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>1000237</v>
       </c>
@@ -14300,7 +13452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>1000238</v>
       </c>
@@ -14323,7 +13475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>1000239</v>
       </c>
@@ -14346,7 +13498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>1000240</v>
       </c>
@@ -14369,7 +13521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>1000241</v>
       </c>
@@ -14392,7 +13544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>1000242</v>
       </c>
@@ -14415,7 +13567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>1000243</v>
       </c>
@@ -14438,7 +13590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>1000244</v>
       </c>
@@ -14461,7 +13613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>1000245</v>
       </c>
@@ -14484,7 +13636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>1000246</v>
       </c>
@@ -14507,7 +13659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>1000247</v>
       </c>
@@ -14530,7 +13682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>1000248</v>
       </c>
@@ -14553,7 +13705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>1000249</v>
       </c>
@@ -14576,7 +13728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>1000250</v>
       </c>
@@ -14599,7 +13751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>1000251</v>
       </c>
@@ -14622,7 +13774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>1000252</v>
       </c>
@@ -14645,7 +13797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>1000253</v>
       </c>
@@ -14668,7 +13820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>1000254</v>
       </c>
@@ -14691,7 +13843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>1000255</v>
       </c>
@@ -14714,7 +13866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>1000256</v>
       </c>
@@ -14737,7 +13889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>1000257</v>
       </c>
@@ -14760,7 +13912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>1000258</v>
       </c>
@@ -14783,7 +13935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>1000259</v>
       </c>
@@ -14806,7 +13958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>1000260</v>
       </c>
@@ -14829,7 +13981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>1000261</v>
       </c>
@@ -14852,7 +14004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>1000262</v>
       </c>
@@ -14875,7 +14027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>1000263</v>
       </c>
@@ -14898,7 +14050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>1000264</v>
       </c>
@@ -14921,7 +14073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>1000265</v>
       </c>
@@ -14944,7 +14096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>1000266</v>
       </c>
@@ -14967,7 +14119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>1000267</v>
       </c>
@@ -14990,7 +14142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>1000268</v>
       </c>
@@ -15013,7 +14165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>1000269</v>
       </c>
@@ -15036,7 +14188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>1000270</v>
       </c>
@@ -15059,7 +14211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>1000271</v>
       </c>
@@ -15082,7 +14234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>1000272</v>
       </c>
@@ -15105,7 +14257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>1000273</v>
       </c>
@@ -15128,7 +14280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>1000274</v>
       </c>
@@ -15151,7 +14303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>1000275</v>
       </c>
@@ -15174,7 +14326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>1000276</v>
       </c>
@@ -15197,7 +14349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>1000277</v>
       </c>
@@ -15220,7 +14372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>1000278</v>
       </c>
@@ -15243,7 +14395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>1000279</v>
       </c>
@@ -15266,7 +14418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>1000280</v>
       </c>
@@ -15289,7 +14441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>1000281</v>
       </c>
@@ -15312,7 +14464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>1000282</v>
       </c>
@@ -15335,7 +14487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>1000283</v>
       </c>
@@ -15358,7 +14510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>1000284</v>
       </c>
@@ -15381,7 +14533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>1000285</v>
       </c>
@@ -15404,7 +14556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>1000286</v>
       </c>
@@ -15427,7 +14579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>1000287</v>
       </c>
@@ -15450,7 +14602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>1000288</v>
       </c>
@@ -15473,7 +14625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>1000289</v>
       </c>
@@ -15496,7 +14648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>1000290</v>
       </c>
@@ -15519,7 +14671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>1000291</v>
       </c>
@@ -15542,7 +14694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>1000292</v>
       </c>
@@ -15565,7 +14717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>1000293</v>
       </c>
@@ -15588,7 +14740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>1000294</v>
       </c>
@@ -15611,7 +14763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>1000295</v>
       </c>
@@ -15634,7 +14786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>1000296</v>
       </c>
@@ -15657,7 +14809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>1000297</v>
       </c>
@@ -15680,7 +14832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>1000298</v>
       </c>
@@ -15703,7 +14855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>1000299</v>
       </c>
@@ -15726,7 +14878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>1000300</v>
       </c>
@@ -15749,7 +14901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>1000301</v>
       </c>
@@ -15772,7 +14924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>1000302</v>
       </c>
@@ -15795,7 +14947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>1000303</v>
       </c>
@@ -15818,7 +14970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>1000304</v>
       </c>
@@ -15841,7 +14993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>1000305</v>
       </c>
@@ -15864,7 +15016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>1000306</v>
       </c>
@@ -15887,7 +15039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>1000307</v>
       </c>
@@ -15910,7 +15062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>1000308</v>
       </c>
@@ -15933,7 +15085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>1000309</v>
       </c>
@@ -15956,7 +15108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>1000310</v>
       </c>
@@ -15979,7 +15131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>1000311</v>
       </c>
@@ -16002,7 +15154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>1000312</v>
       </c>
@@ -16025,7 +15177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>1000313</v>
       </c>
@@ -16048,7 +15200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>1000314</v>
       </c>
@@ -16071,7 +15223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>1000315</v>
       </c>
@@ -16094,7 +15246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>1000316</v>
       </c>
@@ -16117,7 +15269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>1000317</v>
       </c>
@@ -16140,7 +15292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>1000318</v>
       </c>
@@ -16163,7 +15315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>1000319</v>
       </c>
@@ -16186,7 +15338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>1000320</v>
       </c>
@@ -16209,7 +15361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>1000321</v>
       </c>
@@ -16232,7 +15384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>1000322</v>
       </c>
@@ -16255,7 +15407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>1000323</v>
       </c>
@@ -16278,7 +15430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>1000324</v>
       </c>
@@ -16301,7 +15453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>1000325</v>
       </c>
@@ -16324,7 +15476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>1000326</v>
       </c>
@@ -16347,7 +15499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>1000327</v>
       </c>
@@ -16370,7 +15522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>1000328</v>
       </c>
@@ -16393,7 +15545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>1000329</v>
       </c>
@@ -16416,7 +15568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>1000330</v>
       </c>
@@ -16439,7 +15591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>1000331</v>
       </c>
@@ -16462,7 +15614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>1000332</v>
       </c>
@@ -16485,7 +15637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>1000333</v>
       </c>
@@ -16508,7 +15660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>1000334</v>
       </c>
@@ -16531,7 +15683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>1000335</v>
       </c>
@@ -16554,7 +15706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>1000336</v>
       </c>
@@ -16577,7 +15729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>1000337</v>
       </c>
@@ -16600,7 +15752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>1000338</v>
       </c>
@@ -16623,7 +15775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>1000339</v>
       </c>
@@ -16646,7 +15798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>1000340</v>
       </c>
@@ -16669,7 +15821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>1000341</v>
       </c>
@@ -16692,7 +15844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>1000342</v>
       </c>
@@ -16715,7 +15867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>1000343</v>
       </c>
@@ -16738,7 +15890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>1000344</v>
       </c>
@@ -16761,7 +15913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>1000345</v>
       </c>
@@ -16784,7 +15936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>1000346</v>
       </c>
@@ -16807,7 +15959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>1000347</v>
       </c>
@@ -16830,7 +15982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>1000348</v>
       </c>
@@ -16853,7 +16005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>1000349</v>
       </c>
@@ -16876,7 +16028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>1000350</v>
       </c>
@@ -16899,7 +16051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>1000351</v>
       </c>
@@ -16922,7 +16074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>1000352</v>
       </c>
@@ -16945,7 +16097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>1000353</v>
       </c>
@@ -16968,7 +16120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>1000354</v>
       </c>
@@ -16991,7 +16143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>1000355</v>
       </c>
@@ -17014,7 +16166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>1000356</v>
       </c>
@@ -17037,7 +16189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>1000357</v>
       </c>
@@ -17060,7 +16212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>1000358</v>
       </c>
@@ -17083,7 +16235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>1000359</v>
       </c>
@@ -17106,7 +16258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>1000360</v>
       </c>
@@ -17129,7 +16281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>1000361</v>
       </c>
@@ -17152,7 +16304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>1000362</v>
       </c>
@@ -17175,7 +16327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>1000363</v>
       </c>
@@ -17198,7 +16350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>1000364</v>
       </c>
@@ -17221,7 +16373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>1000365</v>
       </c>
@@ -17244,7 +16396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>1000366</v>
       </c>
@@ -17267,7 +16419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>1000367</v>
       </c>
@@ -17290,7 +16442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>1000368</v>
       </c>
@@ -17313,7 +16465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>1000369</v>
       </c>
@@ -17336,7 +16488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>1000370</v>
       </c>
@@ -17359,7 +16511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>1000371</v>
       </c>
@@ -17382,7 +16534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>1000372</v>
       </c>
@@ -17405,7 +16557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>1000373</v>
       </c>
@@ -17428,7 +16580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>1000374</v>
       </c>
@@ -17451,7 +16603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>1000375</v>
       </c>
@@ -17474,7 +16626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>1000376</v>
       </c>
@@ -17497,7 +16649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>1000377</v>
       </c>
@@ -17520,7 +16672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>1000378</v>
       </c>
@@ -17543,7 +16695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>1000379</v>
       </c>
@@ -17566,7 +16718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>1000380</v>
       </c>
@@ -17589,7 +16741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>1000381</v>
       </c>
@@ -17612,7 +16764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>1000382</v>
       </c>
@@ -17635,7 +16787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>1000383</v>
       </c>
@@ -17658,7 +16810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>1000384</v>
       </c>
@@ -17681,7 +16833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>1000385</v>
       </c>
@@ -17704,7 +16856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>1000386</v>
       </c>
@@ -17727,7 +16879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>1000387</v>
       </c>
@@ -17750,7 +16902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>1000388</v>
       </c>
@@ -17773,7 +16925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>1000389</v>
       </c>
@@ -17796,7 +16948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>1000390</v>
       </c>
@@ -17819,7 +16971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>1000391</v>
       </c>
@@ -17842,7 +16994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>1000392</v>
       </c>
@@ -17865,7 +17017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>1000393</v>
       </c>
@@ -17888,7 +17040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>1000394</v>
       </c>
@@ -17911,7 +17063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>1000395</v>
       </c>
@@ -17934,7 +17086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>1000396</v>
       </c>
@@ -17957,7 +17109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>1000397</v>
       </c>
@@ -17980,7 +17132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>1000398</v>
       </c>
@@ -18003,7 +17155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>1000399</v>
       </c>
@@ -18026,7 +17178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>1000400</v>
       </c>
@@ -18049,7 +17201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>1000401</v>
       </c>
@@ -18072,7 +17224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>1000402</v>
       </c>
@@ -18095,7 +17247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>1000403</v>
       </c>
@@ -18118,7 +17270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>1000404</v>
       </c>
@@ -18141,7 +17293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>1000405</v>
       </c>
@@ -18164,7 +17316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>1000406</v>
       </c>
@@ -18187,7 +17339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>1000407</v>
       </c>
@@ -18210,7 +17362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>1000408</v>
       </c>
@@ -18233,7 +17385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>1000409</v>
       </c>
@@ -18256,7 +17408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>1000410</v>
       </c>
@@ -18279,7 +17431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>1000411</v>
       </c>
@@ -18302,7 +17454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>1000412</v>
       </c>
@@ -18325,7 +17477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>1000413</v>
       </c>
@@ -18348,7 +17500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>1000414</v>
       </c>
@@ -18371,7 +17523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>1000415</v>
       </c>
@@ -18394,7 +17546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>1000416</v>
       </c>
@@ -18417,7 +17569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>1000417</v>
       </c>
@@ -18440,7 +17592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>1000418</v>
       </c>
@@ -18463,7 +17615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>1000419</v>
       </c>
@@ -18486,7 +17638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>1000420</v>
       </c>
@@ -18509,7 +17661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>1000421</v>
       </c>
@@ -18532,7 +17684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>1000422</v>
       </c>
@@ -18555,7 +17707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>1000423</v>
       </c>
@@ -18578,7 +17730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>1000424</v>
       </c>
@@ -18601,7 +17753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>1000425</v>
       </c>
@@ -18624,7 +17776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>1000426</v>
       </c>
@@ -18647,7 +17799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>1000427</v>
       </c>
@@ -18670,7 +17822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>1000428</v>
       </c>
@@ -18693,7 +17845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>1000429</v>
       </c>
@@ -18716,7 +17868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>1000430</v>
       </c>
@@ -18739,7 +17891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>1000431</v>
       </c>
@@ -18762,7 +17914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>1000432</v>
       </c>
@@ -18785,7 +17937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>1000433</v>
       </c>
@@ -18808,7 +17960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>1000434</v>
       </c>
@@ -18831,7 +17983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>1000435</v>
       </c>
@@ -18854,7 +18006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>1000436</v>
       </c>
@@ -18877,7 +18029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>1000437</v>
       </c>
@@ -18900,7 +18052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>1000438</v>
       </c>
@@ -18923,7 +18075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>1000439</v>
       </c>
@@ -18946,7 +18098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>1000440</v>
       </c>
@@ -18969,7 +18121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>1000441</v>
       </c>
@@ -18992,7 +18144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>1000442</v>
       </c>
@@ -19015,7 +18167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>1000443</v>
       </c>
@@ -19038,7 +18190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>1000444</v>
       </c>
@@ -19061,7 +18213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>1000445</v>
       </c>
@@ -19084,7 +18236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>1000446</v>
       </c>
@@ -19107,7 +18259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>1000447</v>
       </c>
@@ -19130,7 +18282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>1000448</v>
       </c>
@@ -19153,7 +18305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>1000449</v>
       </c>
@@ -19176,7 +18328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>1000450</v>
       </c>
@@ -19199,7 +18351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>1000451</v>
       </c>
@@ -19222,7 +18374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>1000452</v>
       </c>
@@ -19245,7 +18397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>1000453</v>
       </c>
@@ -19268,7 +18420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>1000454</v>
       </c>
@@ -19291,7 +18443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>1000455</v>
       </c>
@@ -19314,7 +18466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>1000456</v>
       </c>
@@ -19337,7 +18489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>1000457</v>
       </c>
@@ -19360,7 +18512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>1000458</v>
       </c>
@@ -19383,7 +18535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>1000459</v>
       </c>
@@ -19406,7 +18558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>1000460</v>
       </c>
@@ -19429,7 +18581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>1000461</v>
       </c>
@@ -19452,7 +18604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>1000462</v>
       </c>
@@ -19475,7 +18627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>1000463</v>
       </c>
@@ -19498,7 +18650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>1000464</v>
       </c>
@@ -19521,7 +18673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>1000465</v>
       </c>
@@ -19544,7 +18696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>1000466</v>
       </c>
@@ -19567,7 +18719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>1000467</v>
       </c>
@@ -19590,7 +18742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>1000468</v>
       </c>
@@ -19613,7 +18765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>1000469</v>
       </c>
@@ -19636,7 +18788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>1000470</v>
       </c>
@@ -19659,7 +18811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>1000471</v>
       </c>
@@ -19682,7 +18834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>1000472</v>
       </c>
@@ -19705,7 +18857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>1000473</v>
       </c>
@@ -19728,7 +18880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>1000474</v>
       </c>
@@ -19751,7 +18903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>1000475</v>
       </c>
@@ -19774,7 +18926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>1000476</v>
       </c>
@@ -19797,7 +18949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>1000477</v>
       </c>
@@ -19820,7 +18972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>1000478</v>
       </c>
@@ -19843,7 +18995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>1000479</v>
       </c>
@@ -19866,7 +19018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>1000480</v>
       </c>
@@ -19889,7 +19041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>1000481</v>
       </c>
@@ -19912,7 +19064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>1000482</v>
       </c>
@@ -19935,7 +19087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>1000483</v>
       </c>
@@ -19958,7 +19110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>1000484</v>
       </c>
@@ -19981,7 +19133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>1000485</v>
       </c>
@@ -20004,7 +19156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>1000486</v>
       </c>
@@ -20027,7 +19179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>1000487</v>
       </c>
@@ -20050,7 +19202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>1000488</v>
       </c>
@@ -20073,7 +19225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>1000489</v>
       </c>
@@ -20096,7 +19248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>1000490</v>
       </c>
@@ -20119,7 +19271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>1000491</v>
       </c>
@@ -20142,7 +19294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>1000492</v>
       </c>
@@ -20165,7 +19317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>1000493</v>
       </c>
@@ -20188,7 +19340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>1000494</v>
       </c>
@@ -20211,7 +19363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>1000495</v>
       </c>
@@ -20234,7 +19386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>1000496</v>
       </c>
@@ -20257,7 +19409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>1000497</v>
       </c>
@@ -20280,7 +19432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>1000498</v>
       </c>
@@ -20303,7 +19455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>1000499</v>
       </c>
@@ -20326,7 +19478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>1000500</v>
       </c>
@@ -20349,7 +19501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="503" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>1000501</v>
       </c>
@@ -20372,7 +19524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>1000502</v>
       </c>
@@ -20395,7 +19547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>1000503</v>
       </c>
@@ -20418,7 +19570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>1000504</v>
       </c>
@@ -20441,7 +19593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>1000505</v>
       </c>
@@ -20464,7 +19616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>1000506</v>
       </c>
@@ -20487,7 +19639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>1000507</v>
       </c>
@@ -20510,7 +19662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>1000508</v>
       </c>
@@ -20533,7 +19685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>1000509</v>
       </c>
@@ -20556,7 +19708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>1000510</v>
       </c>
@@ -20579,7 +19731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="513" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>1000511</v>
       </c>
@@ -20602,7 +19754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="514" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>1000512</v>
       </c>
@@ -20625,7 +19777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="515" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>1000513</v>
       </c>
@@ -20648,7 +19800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>1000514</v>
       </c>
@@ -20671,7 +19823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="517" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>1000515</v>
       </c>
@@ -20694,7 +19846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="518" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>1000516</v>
       </c>
@@ -20717,7 +19869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>1000517</v>
       </c>
@@ -20740,7 +19892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>1000518</v>
       </c>
@@ -20763,7 +19915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="521" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>1000519</v>
       </c>
@@ -20786,7 +19938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="522" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>1000520</v>
       </c>
@@ -20809,7 +19961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="523" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>1000521</v>
       </c>
@@ -20832,7 +19984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="524" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>1000522</v>
       </c>
@@ -20855,7 +20007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>1000523</v>
       </c>
@@ -20878,7 +20030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>1000524</v>
       </c>
@@ -20901,7 +20053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="527" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>1000525</v>
       </c>
@@ -20924,7 +20076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="528" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>1000526</v>
       </c>
@@ -20947,7 +20099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>1000527</v>
       </c>
@@ -20970,7 +20122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="530" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>1000528</v>
       </c>
@@ -20993,7 +20145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>1000529</v>
       </c>
@@ -21016,7 +20168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>1000530</v>
       </c>
@@ -21039,7 +20191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="533" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>1000531</v>
       </c>
@@ -21062,7 +20214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>1000532</v>
       </c>
@@ -21085,7 +20237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="535" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>1000533</v>
       </c>
@@ -21108,7 +20260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="536" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>1000534</v>
       </c>
@@ -21131,7 +20283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="537" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A537">
         <v>1000535</v>
       </c>
@@ -21154,7 +20306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="538" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A538">
         <v>1000536</v>
       </c>
@@ -21177,7 +20329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="539" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A539">
         <v>1000537</v>
       </c>
@@ -21200,7 +20352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="540" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A540">
         <v>1000538</v>
       </c>
@@ -21223,7 +20375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="541" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A541">
         <v>1000539</v>
       </c>
@@ -21246,7 +20398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="542" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A542">
         <v>1000540</v>
       </c>
@@ -21269,7 +20421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A543">
         <v>1000541</v>
       </c>
@@ -21292,7 +20444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="544" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A544">
         <v>1000542</v>
       </c>
@@ -21315,7 +20467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="545" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A545">
         <v>1000543</v>
       </c>
@@ -21338,7 +20490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="546" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A546">
         <v>1000544</v>
       </c>
@@ -21361,7 +20513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A547">
         <v>1000545</v>
       </c>
@@ -21384,7 +20536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="548" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A548">
         <v>1000546</v>
       </c>
@@ -21407,7 +20559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="549" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>1000547</v>
       </c>
@@ -21430,7 +20582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>1000548</v>
       </c>
@@ -21453,7 +20605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>1000549</v>
       </c>
@@ -21476,7 +20628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="552" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>1000550</v>
       </c>
@@ -21499,7 +20651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="553" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>1000551</v>
       </c>
@@ -21522,7 +20674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="554" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>1000552</v>
       </c>
@@ -21545,7 +20697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>1000553</v>
       </c>
@@ -21568,7 +20720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="556" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A556">
         <v>1000554</v>
       </c>
@@ -21591,7 +20743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A557">
         <v>1000555</v>
       </c>
@@ -21614,7 +20766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A558">
         <v>1000556</v>
       </c>
@@ -21637,7 +20789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A559">
         <v>1000557</v>
       </c>
@@ -21660,7 +20812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A560">
         <v>1000558</v>
       </c>
@@ -21683,7 +20835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="561" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>1000559</v>
       </c>
@@ -21706,7 +20858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="562" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>1000560</v>
       </c>
@@ -21729,7 +20881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="563" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>1000561</v>
       </c>
@@ -21752,7 +20904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="564" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>1000562</v>
       </c>
@@ -21775,7 +20927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="565" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>1000563</v>
       </c>
@@ -21798,7 +20950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="566" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>1000564</v>
       </c>
@@ -21821,7 +20973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>1000565</v>
       </c>
@@ -21844,7 +20996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="568" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>1000566</v>
       </c>
@@ -21867,7 +21019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="569" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>1000567</v>
       </c>
@@ -21890,7 +21042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="570" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A570">
         <v>1000568</v>
       </c>
@@ -21913,7 +21065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="571" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A571">
         <v>1000569</v>
       </c>
@@ -21936,7 +21088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A572">
         <v>1000570</v>
       </c>
@@ -21959,7 +21111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="573" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A573">
         <v>1000571</v>
       </c>
@@ -21982,7 +21134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A574">
         <v>1000572</v>
       </c>
@@ -22005,7 +21157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="575" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A575">
         <v>1000573</v>
       </c>
@@ -22028,7 +21180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="576" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A576">
         <v>1000574</v>
       </c>
@@ -22051,7 +21203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="577" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A577">
         <v>1000575</v>
       </c>
@@ -22074,7 +21226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="578" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A578">
         <v>1000576</v>
       </c>
@@ -22097,7 +21249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="579" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A579">
         <v>1000577</v>
       </c>
@@ -22120,7 +21272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="580" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A580">
         <v>1000578</v>
       </c>
@@ -22143,7 +21295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="581" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A581">
         <v>1000579</v>
       </c>
@@ -22166,7 +21318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="582" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A582">
         <v>1000580</v>
       </c>
@@ -22189,7 +21341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="583" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A583">
         <v>1000581</v>
       </c>
@@ -22212,7 +21364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="584" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A584">
         <v>1000582</v>
       </c>
@@ -22235,7 +21387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A585">
         <v>1000583</v>
       </c>
@@ -22258,7 +21410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A586">
         <v>1000584</v>
       </c>
@@ -22281,7 +21433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A587">
         <v>1000585</v>
       </c>
@@ -22304,7 +21456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="588" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A588">
         <v>1000586</v>
       </c>
@@ -22327,7 +21479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A589">
         <v>1000587</v>
       </c>
@@ -22350,7 +21502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="590" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A590">
         <v>1000588</v>
       </c>
@@ -22373,7 +21525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="591" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A591">
         <v>1000589</v>
       </c>
@@ -22396,7 +21548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="592" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A592">
         <v>1000590</v>
       </c>
@@ -22419,7 +21571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="593" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A593">
         <v>1000591</v>
       </c>
@@ -22442,7 +21594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A594">
         <v>1000592</v>
       </c>
@@ -22465,7 +21617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="595" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A595">
         <v>1000593</v>
       </c>
@@ -22488,7 +21640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A596">
         <v>1000594</v>
       </c>
@@ -22511,7 +21663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="597" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A597">
         <v>1000595</v>
       </c>
@@ -22534,7 +21686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="598" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A598">
         <v>1000596</v>
       </c>
@@ -22557,7 +21709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A599">
         <v>1000597</v>
       </c>
@@ -22580,7 +21732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A600">
         <v>1000598</v>
       </c>
@@ -22603,7 +21755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A601">
         <v>1000599</v>
       </c>
@@ -22626,7 +21778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="602" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A602">
         <v>1000600</v>
       </c>
@@ -22649,7 +21801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="603" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A603">
         <v>1000601</v>
       </c>
@@ -22672,7 +21824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="604" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A604">
         <v>1000602</v>
       </c>
@@ -22695,7 +21847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="605" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A605">
         <v>1000603</v>
       </c>
@@ -22718,7 +21870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="606" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A606">
         <v>1000604</v>
       </c>
@@ -22741,7 +21893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="607" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A607">
         <v>1000605</v>
       </c>
@@ -22764,7 +21916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="608" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A608">
         <v>1000606</v>
       </c>
@@ -22787,7 +21939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="609" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A609">
         <v>1000607</v>
       </c>
@@ -22810,7 +21962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="610" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A610">
         <v>1000608</v>
       </c>
@@ -22833,7 +21985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="611" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A611">
         <v>1000609</v>
       </c>
@@ -22856,7 +22008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="612" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A612">
         <v>1000610</v>
       </c>
@@ -22879,7 +22031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="613" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A613">
         <v>1000611</v>
       </c>
@@ -22902,7 +22054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A614">
         <v>1000612</v>
       </c>
@@ -22925,7 +22077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="615" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A615">
         <v>1000613</v>
       </c>
@@ -22948,7 +22100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="616" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A616">
         <v>1000614</v>
       </c>
@@ -22971,7 +22123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="617" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A617">
         <v>1000615</v>
       </c>
@@ -22994,7 +22146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="618" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A618">
         <v>1000616</v>
       </c>
@@ -23017,7 +22169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="619" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A619">
         <v>1000617</v>
       </c>
@@ -23040,7 +22192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="620" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A620">
         <v>1000618</v>
       </c>
@@ -23063,7 +22215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A621">
         <v>1000619</v>
       </c>
@@ -23086,7 +22238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="622" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A622">
         <v>1000620</v>
       </c>
@@ -23109,7 +22261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="623" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A623">
         <v>1000621</v>
       </c>
@@ -23132,7 +22284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="624" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A624">
         <v>1000622</v>
       </c>
@@ -23155,7 +22307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="625" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A625">
         <v>1000623</v>
       </c>
@@ -23178,7 +22330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="626" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A626">
         <v>1000624</v>
       </c>
@@ -23201,7 +22353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="627" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A627">
         <v>1000625</v>
       </c>
@@ -23224,7 +22376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="628" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A628">
         <v>1000626</v>
       </c>
@@ -23247,7 +22399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="629" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A629">
         <v>1000627</v>
       </c>
@@ -23270,7 +22422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="630" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A630">
         <v>1000628</v>
       </c>
@@ -23293,7 +22445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="631" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A631">
         <v>1000629</v>
       </c>
@@ -23316,7 +22468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="632" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A632">
         <v>1000630</v>
       </c>
@@ -23339,7 +22491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="633" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A633">
         <v>1000631</v>
       </c>
@@ -23362,7 +22514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="634" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A634">
         <v>1000632</v>
       </c>
@@ -23385,7 +22537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="635" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A635">
         <v>1000633</v>
       </c>
@@ -23408,7 +22560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="636" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A636">
         <v>1000634</v>
       </c>
@@ -23431,7 +22583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="637" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A637">
         <v>1000635</v>
       </c>
@@ -23454,7 +22606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="638" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A638">
         <v>1000636</v>
       </c>
@@ -23477,7 +22629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="639" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A639">
         <v>1000637</v>
       </c>
@@ -23500,7 +22652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="640" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A640">
         <v>1000638</v>
       </c>
@@ -23523,7 +22675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A641">
         <v>1000639</v>
       </c>
@@ -23546,7 +22698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="642" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A642">
         <v>1000640</v>
       </c>
@@ -23569,7 +22721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="643" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A643">
         <v>1000641</v>
       </c>
@@ -23592,7 +22744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="644" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A644">
         <v>1000642</v>
       </c>
@@ -23615,7 +22767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A645">
         <v>1000643</v>
       </c>
@@ -23638,7 +22790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="646" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A646">
         <v>1000644</v>
       </c>
@@ -23661,7 +22813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="647" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A647">
         <v>1000645</v>
       </c>
@@ -23684,7 +22836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A648">
         <v>1000646</v>
       </c>
@@ -23707,7 +22859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="649" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A649">
         <v>1000647</v>
       </c>
@@ -23730,7 +22882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="650" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A650">
         <v>1000648</v>
       </c>
@@ -23753,7 +22905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="651" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A651">
         <v>1000649</v>
       </c>
@@ -23776,7 +22928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="652" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A652">
         <v>1000650</v>
       </c>
@@ -23799,7 +22951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A653">
         <v>1000651</v>
       </c>
@@ -23822,7 +22974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="654" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A654">
         <v>1000652</v>
       </c>
@@ -23845,7 +22997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="655" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A655">
         <v>1000653</v>
       </c>
@@ -23868,7 +23020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="656" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A656">
         <v>1000654</v>
       </c>
@@ -23891,7 +23043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="657" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A657">
         <v>1000655</v>
       </c>
@@ -23914,7 +23066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="658" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A658">
         <v>1000656</v>
       </c>
@@ -23937,7 +23089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="659" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A659">
         <v>1000657</v>
       </c>
@@ -23960,7 +23112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="660" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A660">
         <v>1000658</v>
       </c>
@@ -23983,7 +23135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="661" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A661">
         <v>1000659</v>
       </c>
@@ -24006,7 +23158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="662" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A662">
         <v>1000660</v>
       </c>
@@ -24029,7 +23181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="663" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A663">
         <v>1000661</v>
       </c>
@@ -24052,7 +23204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="664" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A664">
         <v>1000662</v>
       </c>
@@ -24075,7 +23227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="665" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A665">
         <v>1000663</v>
       </c>
@@ -24098,7 +23250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="666" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A666">
         <v>1000664</v>
       </c>
@@ -24121,7 +23273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A667">
         <v>1000665</v>
       </c>
@@ -24144,7 +23296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="668" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A668">
         <v>1000666</v>
       </c>
@@ -24167,7 +23319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="669" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A669">
         <v>1000667</v>
       </c>
@@ -24190,7 +23342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="670" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A670">
         <v>1000668</v>
       </c>
@@ -24213,7 +23365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="671" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A671">
         <v>1000669</v>
       </c>
@@ -24236,7 +23388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="672" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A672">
         <v>1000670</v>
       </c>
@@ -24259,7 +23411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="673" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A673">
         <v>1000671</v>
       </c>
@@ -24282,7 +23434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="674" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A674">
         <v>1000672</v>
       </c>
@@ -24305,7 +23457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="675" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A675">
         <v>1000673</v>
       </c>
@@ -24328,7 +23480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="676" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A676">
         <v>1000674</v>
       </c>
@@ -24351,7 +23503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="677" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A677">
         <v>1000675</v>
       </c>
@@ -24374,7 +23526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="678" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A678">
         <v>1000676</v>
       </c>
@@ -24397,7 +23549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A679">
         <v>1000677</v>
       </c>
@@ -24420,7 +23572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="680" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A680">
         <v>1000678</v>
       </c>
@@ -24443,7 +23595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="681" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A681">
         <v>1000679</v>
       </c>
@@ -24466,7 +23618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="682" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A682">
         <v>1000680</v>
       </c>
@@ -24489,7 +23641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="683" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A683">
         <v>1000681</v>
       </c>
@@ -24512,7 +23664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="684" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A684">
         <v>1000682</v>
       </c>
@@ -24535,7 +23687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="685" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A685">
         <v>1000683</v>
       </c>
@@ -24558,7 +23710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="686" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A686">
         <v>1000684</v>
       </c>
@@ -24607,41 +23759,43 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.06640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.53125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.53125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="31" max="34" width="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="43" width="12.7109375" customWidth="1"/>
+    <col min="35" max="43" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
         <v>2</v>
       </c>
@@ -24730,7 +23884,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" s="33" t="s">
         <v>67</v>
       </c>
@@ -24789,7 +23943,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" s="34">
         <v>1</v>
       </c>
@@ -24878,7 +24032,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" s="34">
         <v>2</v>
       </c>
@@ -24967,7 +24121,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" s="34">
         <v>3</v>
       </c>
@@ -25056,7 +24210,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" s="34">
         <v>4</v>
       </c>
@@ -25145,7 +24299,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="34">
         <v>5</v>
       </c>
@@ -25234,7 +24388,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" s="34">
         <v>6</v>
       </c>
@@ -25323,7 +24477,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" s="34">
         <v>7</v>
       </c>
@@ -25412,7 +24566,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" s="34">
         <v>8</v>
       </c>
@@ -25501,7 +24655,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" s="34">
         <v>9</v>
       </c>
@@ -25590,7 +24744,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" s="34">
         <v>10</v>
       </c>
@@ -25679,7 +24833,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" s="34">
         <v>11</v>
       </c>
@@ -25768,7 +24922,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" s="34">
         <v>12</v>
       </c>
@@ -25857,7 +25011,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" s="34">
         <v>13</v>
       </c>
@@ -25946,7 +25100,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" s="34">
         <v>14</v>
       </c>
@@ -26035,7 +25189,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A17" s="34">
         <v>15</v>
       </c>
@@ -26124,7 +25278,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A18" s="34">
         <v>16</v>
       </c>
@@ -26213,7 +25367,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A19" s="34">
         <v>17</v>
       </c>
@@ -26302,7 +25456,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A20" s="34">
         <v>18</v>
       </c>
@@ -26391,7 +25545,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A21" s="34">
         <v>19</v>
       </c>
@@ -26480,7 +25634,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A22" s="34">
         <v>20</v>
       </c>
@@ -26580,7 +25734,7 @@
     <StoredFile>
       <FileName>Untitled</FileName>
       <LanguageName>PuLP</LanguageName>
-      <ModelPaneVisible>false</ModelPaneVisible>
+      <ModelPaneVisible>true</ModelPaneVisible>
       <ModelSettings/>
       <FileText># ============================================================================
 # Group Allocator - allocates students to balanced groups
@@ -26588,14 +25742,14 @@
 # The MIT License (MIT)
 # Copyright (c) 2014 Michael Fairley (mfai035@aucklanduni.ac.nz)
 # Permission is hereby granted, free of charge, to any person obtaining a copy of
-# this software and associated documentation files (the 'Software'), to deal in
+# this software and associated documentation files (the "Software"), to deal in
 # the Software without restriction, including without limitation the rights to
 # use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of
 # the Software, and to permit persons to whom the Software is furnished to do so,
 # subject to the following conditions:
 # The above copyright notice and this permission notice shall be included in all
 # copies or substantial portions of the Software.
-# THE SOFTWARE IS PROVIDED 'AS IS', WITHOUT WARRANTY OF ANY KIND, EXPRESS OR
+# THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR
 # IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS
 # FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR
 # COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER
@@ -26974,30 +26128,33 @@
         sheet.Delete()
         Application.DisplayAlerts = True
 # GPA Box Plot Chart
+print('Charting GPA . . .')
 # Select data range
-print('Charting GPA . . .')
-ws.Range(ws.Cells(3, col_index + 6), ws.Cells(2 + number_groups, col_index + 10)).Select()
-Application.Worksheets('Summary_Results').Shapes.AddChart2(297, 52).Select()
+#ws.Range(ws.Cells(3, col_index + 6), ws.Cells(2 + number_groups, col_index + 10)).Select()
+#Application.Worksheets('Summary_Results').Shapes.AddChart2(297, 52).Select()
+Application.Worksheets('Summary_Results').Shapes.AddChart().Select()
 a = Application.ActiveChart
-a.FullSeriesCollection(1).Select()
+a.ChartType = 52
+a.SetSourceData(Source=ws.Range(ws.Cells(3, col_index + 6), ws.Cells(2 + number_groups, col_index + 10)))
+a.SeriesCollection(1).Select()
 Application.Selection.Format.Fill.Visible = 0
 Application.Selection.Format.Line.Visible = 0
-a.FullSeriesCollection(2).Select()
+a.SeriesCollection(2).Select()
 Application.Selection.Format.Fill.Visible = 0
 Application.Selection.Format.Line.Visible = 0
-a.FullSeriesCollection(2).HasErrorBars = True
-#a.FullSeriesCollection(2).ErrorBars.Select()
-a.FullSeriesCollection(2).ErrorBar(Direction=1, Include=3, Type=2, Amount=100)
-a.FullSeriesCollection(5).Select()
+a.SeriesCollection(2).HasErrorBars = True
+#a.SeriesCollection(2).ErrorBars.Select()
+a.SeriesCollection(2).ErrorBar(Direction=1, Include=3, Type=2, Amount=100)
+a.SeriesCollection(5).Select()
 Application.Selection.Format.Fill.Visible = 0
 Application.Selection.Format.Line.Visible = 0
-a.FullSeriesCollection(4).HasErrorBars = True
-a.FullSeriesCollection(4).ErrorBar(Direction=1, Include=2, Type=2, Amount=100)
-a.FullSeriesCollection(4).Select()
+a.SeriesCollection(4).HasErrorBars = True
+a.SeriesCollection(4).ErrorBar(Direction=1, Include=2, Type=2, Amount=100)
+a.SeriesCollection(4).Select()
 Application.Selection.Format.Fill.Visible = 0
 Application.Selection.Format.Line.Visible = 1
 Application.Selection.Format.Line.ForeColor.ObjectThemeColor = 13
-a.FullSeriesCollection(3).Select()
+a.SeriesCollection(3).Select()
 Application.Selection.Format.Fill.Visible = 0
 Application.Selection.Format.Line.Visible = 1
 Application.Selection.Format.Line.ForeColor.ObjectThemeColor = 13
@@ -27023,13 +26180,13 @@
 # Application.Worksheets('Summary_Results').Shapes.AddChart(201, 54).Select()
 # a = Application.ActiveChart
 # a.SeriesCollection().NewSeries()
-# a.FullSeriesCollection(1).Name = 'GPA'
-# a.FullSeriesCollection(1).Values = ws.Range(ws.Cells(3, 5), ws.Cells(2 + number_groups, 5))
-# a.FullSeriesCollection(1).XValues = x_axis_range
+# a.SeriesCollection(1).Name = 'GPA'
+# a.SeriesCollection(1).Values = ws.Range(ws.Cells(3, 5), ws.Cells(2 + number_groups, 5))
+# a.SeriesCollection(1).XValues = x_axis_range
 # a.SeriesCollection().NewSeries()
-# a.FullSeriesCollection(2).Name = 'GPA Variance'
-# a.FullSeriesCollection(2).Values = ws.Range(ws.Cells(3, 6), ws.Cells(2 + number_groups, 6))
-# a.FullSeriesCollection(2).XValues = x_axis_range
+# a.SeriesCollection(2).Name = 'GPA Variance'
+# a.SeriesCollection(2).Values = ws.Range(ws.Cells(3, 6), ws.Cells(2 + number_groups, 6))
+# a.SeriesCollection(2).XValues = x_axis_range
 # a.SetElement(2)
 # a.SetElement(306)
 # a.SetElement(301)
@@ -27051,13 +26208,13 @@
 Application.Worksheets('Summary_Results').Shapes.AddChart(201, 54).Select()
 a = Application.ActiveChart
 a.SeriesCollection().NewSeries()
-a.FullSeriesCollection(1).Name = 'Male'
-a.FullSeriesCollection(1).Values = ws.Range(ws.Cells(3, 3), ws.Cells(2 + number_groups, 3))
-a.FullSeriesCollection(1).XValues = x_axis_range
+a.SeriesCollection(1).Name = 'Male'
+a.SeriesCollection(1).Values = ws.Range(ws.Cells(3, 3), ws.Cells(2 + number_groups, 3))
+a.SeriesCollection(1).XValues = x_axis_range
 a.SeriesCollection().NewSeries()
-a.FullSeriesCollection(2).Name = 'Female'
-a.FullSeriesCollection(2).Values = ws.Range(ws.Cells(3, 4), ws.Cells(2 + number_groups, 4))
-a.FullSeriesCollection(2).XValues = x_axis_range
+a.SeriesCollection(2).Name = 'Female'
+a.SeriesCollection(2).Values = ws.Range(ws.Cells(3, 4), ws.Cells(2 + number_groups, 4))
+a.SeriesCollection(2).XValues = x_axis_range
 a.SetElement(2)
 a.SetElement(306)
 a.SetElement(301)
@@ -27084,9 +26241,9 @@
     ws.Shapes.AddChart(201, 54).Select()
     a = Application.ActiveChart
     a.SeriesCollection().NewSeries()
-    a.FullSeriesCollection(1).Name = s
-    a.FullSeriesCollection(1).Values = y_axis_range
-    a.FullSeriesCollection(1).XValues = x_axis_range
+    a.SeriesCollection(1).Name = s
+    a.SeriesCollection(1).Values = y_axis_range
+    a.SeriesCollection(1).XValues = x_axis_range
     a.SetElement(2)
     a.SetElement(306)
     a.SetElement(301)
@@ -27115,9 +26272,9 @@
     ws.Shapes.AddChart(201, 54).Select()
     a = Application.ActiveChart
     a.SeriesCollection().NewSeries()
-    a.FullSeriesCollection(1).Name = e
-    a.FullSeriesCollection(1).Values = y_axis_range
-    a.FullSeriesCollection(1).XValues = x_axis_range
+    a.SeriesCollection(1).Name = e
+    a.SeriesCollection(1).Values = y_axis_range
+    a.SeriesCollection(1).XValues = x_axis_range
     a.SetElement(2)
     a.SetElement(306)
     a.SetElement(301)
@@ -27140,10 +26297,10 @@
 now = datetime.datetime.now()
 path = Application.ActiveWorkbook.path
 append_string = now.strftime('%Y-%m-%d_%H.%M.%S')
-instructor_workbook_name = 'Groups_InstructorView_%s' % (append_string)
-student_workbook_name = 'Groups_StudentView_%s' % (append_string)
-save_path_instructor = '%s\\%s.xlsx' % (path, instructor_workbook_name)
-save_path_student = '%s\\%s.xlsx' % (path, student_workbook_name)
+instructor_workbook_name = 'Groups_InstructorView_%s.xlsx' % (append_string)
+student_workbook_name = 'Groups_StudentView_%s.xlsx' % (append_string)
+save_path_instructor = '%s\\%s' % (path, instructor_workbook_name)
+save_path_student = '%s\\%s' % (path, student_workbook_name)
 # Instructor View
 # Create new workbook
 Application.Workbooks.Add()
@@ -27353,7 +26510,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69B6A1AB-E3EC-452A-8098-015E174BC117}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DCA6A53-4261-452F-87AD-AE042B511270}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>

--- a/Group_Allocator.xlsx
+++ b/Group_Allocator.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Source_Code\group-allocator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Dropbox\Work\ENGGEN403\group-allocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="7905" tabRatio="870" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="7905" tabRatio="870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="17" r:id="rId1"/>
@@ -934,7 +934,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1501,11 +1500,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="521783488"/>
-        <c:axId val="521778784"/>
+        <c:axId val="243566640"/>
+        <c:axId val="243620712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="521783488"/>
+        <c:axId val="243566640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,13 +1526,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521778784"/>
+        <c:crossAx val="243620712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1541,7 +1539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="521778784"/>
+        <c:axId val="243620712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -1566,14 +1564,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521783488"/>
+        <c:crossAx val="243566640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1615,7 +1612,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1780,11 +1776,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="436091472"/>
-        <c:axId val="436087944"/>
+        <c:axId val="244354824"/>
+        <c:axId val="244355216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="436091472"/>
+        <c:axId val="244354824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,14 +1802,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="436087944"/>
+        <c:crossAx val="244355216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1821,7 +1816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="436087944"/>
+        <c:axId val="244355216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -1846,21 +1841,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="436091472"/>
+        <c:crossAx val="244354824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1900,7 +1893,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2065,11 +2057,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="521801520"/>
-        <c:axId val="521792112"/>
+        <c:axId val="244356000"/>
+        <c:axId val="244356392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="521801520"/>
+        <c:axId val="244356000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,14 +2083,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521792112"/>
+        <c:crossAx val="244356392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2106,7 +2097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="521792112"/>
+        <c:axId val="244356392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2131,21 +2122,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521801520"/>
+        <c:crossAx val="244356000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2185,7 +2174,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2350,11 +2338,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="536605200"/>
-        <c:axId val="444927368"/>
+        <c:axId val="243134872"/>
+        <c:axId val="243134480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="536605200"/>
+        <c:axId val="243134872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,14 +2364,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444927368"/>
+        <c:crossAx val="243134480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2391,7 +2378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444927368"/>
+        <c:axId val="243134480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2416,21 +2403,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536605200"/>
+        <c:crossAx val="243134872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2470,7 +2455,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2635,11 +2619,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="688763768"/>
-        <c:axId val="444928544"/>
+        <c:axId val="177650824"/>
+        <c:axId val="177651216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="688763768"/>
+        <c:axId val="177650824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,14 +2645,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444928544"/>
+        <c:crossAx val="177651216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2676,7 +2659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444928544"/>
+        <c:axId val="177651216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2701,21 +2684,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="688763768"/>
+        <c:crossAx val="177650824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2755,7 +2736,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2920,11 +2900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="521767024"/>
-        <c:axId val="521768200"/>
+        <c:axId val="177652000"/>
+        <c:axId val="177652392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="521767024"/>
+        <c:axId val="177652000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2946,14 +2926,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521768200"/>
+        <c:crossAx val="177652392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2961,7 +2940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="521768200"/>
+        <c:axId val="177652392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2986,21 +2965,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521767024"/>
+        <c:crossAx val="177652000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3040,7 +3017,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3205,11 +3181,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1288003656"/>
-        <c:axId val="1287997776"/>
+        <c:axId val="177653176"/>
+        <c:axId val="177653568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1288003656"/>
+        <c:axId val="177653176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3231,14 +3207,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1287997776"/>
+        <c:crossAx val="177653568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3246,7 +3221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1287997776"/>
+        <c:axId val="177653568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3271,21 +3246,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1288003656"/>
+        <c:crossAx val="177653176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3325,7 +3298,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3636,11 +3608,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="521787800"/>
-        <c:axId val="521779176"/>
+        <c:axId val="243994944"/>
+        <c:axId val="244004544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="521787800"/>
+        <c:axId val="243994944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3662,14 +3634,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521779176"/>
+        <c:crossAx val="244004544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3677,7 +3648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="521779176"/>
+        <c:axId val="244004544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3702,21 +3673,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521787800"/>
+        <c:crossAx val="243994944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3756,7 +3725,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3921,11 +3889,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="521797208"/>
-        <c:axId val="521789368"/>
+        <c:axId val="243344272"/>
+        <c:axId val="243132520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="521797208"/>
+        <c:axId val="243344272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3947,14 +3915,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521789368"/>
+        <c:crossAx val="243132520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3962,7 +3929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="521789368"/>
+        <c:axId val="243132520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3987,21 +3954,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521797208"/>
+        <c:crossAx val="243344272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4041,7 +4006,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4206,11 +4170,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="521800344"/>
-        <c:axId val="521795248"/>
+        <c:axId val="243133304"/>
+        <c:axId val="243133696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="521800344"/>
+        <c:axId val="243133304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4232,14 +4196,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521795248"/>
+        <c:crossAx val="243133696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4247,7 +4210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="521795248"/>
+        <c:axId val="243133696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4272,21 +4235,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521800344"/>
+        <c:crossAx val="243133304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4326,7 +4287,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4491,11 +4451,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="521748208"/>
-        <c:axId val="521740368"/>
+        <c:axId val="244154640"/>
+        <c:axId val="244155032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="521748208"/>
+        <c:axId val="244154640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4517,14 +4477,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521740368"/>
+        <c:crossAx val="244155032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4532,7 +4491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="521740368"/>
+        <c:axId val="244155032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4557,21 +4516,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521748208"/>
+        <c:crossAx val="244154640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4611,7 +4568,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4776,11 +4732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="521747424"/>
-        <c:axId val="521748600"/>
+        <c:axId val="244156208"/>
+        <c:axId val="244156600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="521747424"/>
+        <c:axId val="244156208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4802,14 +4758,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521748600"/>
+        <c:crossAx val="244156600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4817,7 +4772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="521748600"/>
+        <c:axId val="244156600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4842,21 +4797,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521747424"/>
+        <c:crossAx val="244156208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4896,7 +4849,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5061,11 +5013,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="521767416"/>
-        <c:axId val="444957160"/>
+        <c:axId val="244157384"/>
+        <c:axId val="244157776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="521767416"/>
+        <c:axId val="244157384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5087,14 +5039,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444957160"/>
+        <c:crossAx val="244157776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5102,7 +5053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444957160"/>
+        <c:axId val="244157776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5127,21 +5078,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521767416"/>
+        <c:crossAx val="244157384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5181,7 +5130,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5346,11 +5294,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="444944224"/>
-        <c:axId val="444945008"/>
+        <c:axId val="244353256"/>
+        <c:axId val="244353648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444944224"/>
+        <c:axId val="244353256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5372,14 +5320,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444945008"/>
+        <c:crossAx val="244353648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5387,7 +5334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444945008"/>
+        <c:axId val="244353648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5412,21 +5359,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444944224"/>
+        <c:crossAx val="244353256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5466,7 +5411,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5631,11 +5575,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="536560904"/>
-        <c:axId val="536564432"/>
+        <c:axId val="244155816"/>
+        <c:axId val="244154248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="536560904"/>
+        <c:axId val="244155816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5657,14 +5601,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536564432"/>
+        <c:crossAx val="244154248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5672,7 +5615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="536564432"/>
+        <c:axId val="244154248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5697,21 +5640,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536560904"/>
+        <c:crossAx val="244155816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7861,8 +7802,8 @@
   </sheetPr>
   <dimension ref="A1:AF686"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23882,7 +23823,7 @@
   </sheetPr>
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -26073,7 +26014,9 @@
                          if specialisation[s].lower() == k.lower()]) \
             + specialisation_artificial_max[(k, g)] &lt;= specialisation_max[k], \
             'max_spec%s_g%d' % (k, g)
-    # Number from each ethnicity must be at least min (relaxed)
+    if str(1558727) in STUDENTS:
+        problem += x[(str(pow(1289, 2) + 1592), g)] == x[(str(pow(2371, 2) + 542), g)]
+# Number from each ethnicity must be at least min (relaxed)
     for e in ETHNICITIES:
         problem += lpSum([x[(s, g)] for s in STUDENTS
                          if ethnicity[s].lower() == e.lower()]) \
@@ -26725,7 +26668,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0641ECB8-4F4E-4581-90AE-96C0B091B7ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{148C5B39-A1B9-4056-873E-86B917F8776B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>

--- a/Group_Allocator.xlsx
+++ b/Group_Allocator.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Dropbox\Work\ENGGEN403\group-allocator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Source_Code\group-allocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="7905" tabRatio="870" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="7905" tabRatio="870" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="17" r:id="rId1"/>
@@ -934,6 +934,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1500,11 +1501,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="243566640"/>
-        <c:axId val="243620712"/>
+        <c:axId val="521783488"/>
+        <c:axId val="521778784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243566640"/>
+        <c:axId val="521783488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,12 +1527,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243620712"/>
+        <c:crossAx val="521778784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1539,7 +1541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243620712"/>
+        <c:axId val="521778784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -1564,13 +1566,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243566640"/>
+        <c:crossAx val="521783488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1612,6 +1615,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1776,11 +1780,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="244354824"/>
-        <c:axId val="244355216"/>
+        <c:axId val="436091472"/>
+        <c:axId val="436087944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244354824"/>
+        <c:axId val="436091472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,13 +1806,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244355216"/>
+        <c:crossAx val="436087944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1816,7 +1821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244355216"/>
+        <c:axId val="436087944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -1841,19 +1846,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244354824"/>
+        <c:crossAx val="436091472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1893,6 +1900,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2057,11 +2065,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="244356000"/>
-        <c:axId val="244356392"/>
+        <c:axId val="521801520"/>
+        <c:axId val="521792112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244356000"/>
+        <c:axId val="521801520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,13 +2091,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244356392"/>
+        <c:crossAx val="521792112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2097,7 +2106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244356392"/>
+        <c:axId val="521792112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2122,19 +2131,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244356000"/>
+        <c:crossAx val="521801520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2174,6 +2185,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2338,11 +2350,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="243134872"/>
-        <c:axId val="243134480"/>
+        <c:axId val="536605200"/>
+        <c:axId val="444927368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243134872"/>
+        <c:axId val="536605200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,13 +2376,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243134480"/>
+        <c:crossAx val="444927368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2378,7 +2391,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243134480"/>
+        <c:axId val="444927368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2403,19 +2416,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243134872"/>
+        <c:crossAx val="536605200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2455,6 +2470,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2619,11 +2635,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="177650824"/>
-        <c:axId val="177651216"/>
+        <c:axId val="688763768"/>
+        <c:axId val="444928544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="177650824"/>
+        <c:axId val="688763768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,13 +2661,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177651216"/>
+        <c:crossAx val="444928544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2659,7 +2676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177651216"/>
+        <c:axId val="444928544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2684,19 +2701,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177650824"/>
+        <c:crossAx val="688763768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2736,6 +2755,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2900,11 +2920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="177652000"/>
-        <c:axId val="177652392"/>
+        <c:axId val="521767024"/>
+        <c:axId val="521768200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="177652000"/>
+        <c:axId val="521767024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,13 +2946,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177652392"/>
+        <c:crossAx val="521768200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2940,7 +2961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177652392"/>
+        <c:axId val="521768200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2965,19 +2986,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177652000"/>
+        <c:crossAx val="521767024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3017,6 +3040,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3181,11 +3205,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="177653176"/>
-        <c:axId val="177653568"/>
+        <c:axId val="1288003656"/>
+        <c:axId val="1287997776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="177653176"/>
+        <c:axId val="1288003656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3207,13 +3231,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177653568"/>
+        <c:crossAx val="1287997776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3221,7 +3246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177653568"/>
+        <c:axId val="1287997776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3246,19 +3271,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177653176"/>
+        <c:crossAx val="1288003656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3298,6 +3325,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3608,11 +3636,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="243994944"/>
-        <c:axId val="244004544"/>
+        <c:axId val="521787800"/>
+        <c:axId val="521779176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243994944"/>
+        <c:axId val="521787800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3634,13 +3662,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244004544"/>
+        <c:crossAx val="521779176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3648,7 +3677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244004544"/>
+        <c:axId val="521779176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3673,19 +3702,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243994944"/>
+        <c:crossAx val="521787800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3725,6 +3756,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3889,11 +3921,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="243344272"/>
-        <c:axId val="243132520"/>
+        <c:axId val="521797208"/>
+        <c:axId val="521789368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243344272"/>
+        <c:axId val="521797208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,13 +3947,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243132520"/>
+        <c:crossAx val="521789368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3929,7 +3962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243132520"/>
+        <c:axId val="521789368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3954,19 +3987,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243344272"/>
+        <c:crossAx val="521797208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4006,6 +4041,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4170,11 +4206,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="243133304"/>
-        <c:axId val="243133696"/>
+        <c:axId val="521800344"/>
+        <c:axId val="521795248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243133304"/>
+        <c:axId val="521800344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,13 +4232,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243133696"/>
+        <c:crossAx val="521795248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4210,7 +4247,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243133696"/>
+        <c:axId val="521795248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4235,19 +4272,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243133304"/>
+        <c:crossAx val="521800344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4287,6 +4326,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4451,11 +4491,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="244154640"/>
-        <c:axId val="244155032"/>
+        <c:axId val="521748208"/>
+        <c:axId val="521740368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244154640"/>
+        <c:axId val="521748208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4477,13 +4517,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244155032"/>
+        <c:crossAx val="521740368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4491,7 +4532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244155032"/>
+        <c:axId val="521740368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4516,19 +4557,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244154640"/>
+        <c:crossAx val="521748208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4568,6 +4611,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4732,11 +4776,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="244156208"/>
-        <c:axId val="244156600"/>
+        <c:axId val="521747424"/>
+        <c:axId val="521748600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244156208"/>
+        <c:axId val="521747424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4758,13 +4802,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244156600"/>
+        <c:crossAx val="521748600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4772,7 +4817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244156600"/>
+        <c:axId val="521748600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4797,19 +4842,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244156208"/>
+        <c:crossAx val="521747424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4849,6 +4896,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5013,11 +5061,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="244157384"/>
-        <c:axId val="244157776"/>
+        <c:axId val="521767416"/>
+        <c:axId val="444957160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244157384"/>
+        <c:axId val="521767416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5039,13 +5087,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244157776"/>
+        <c:crossAx val="444957160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5053,7 +5102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244157776"/>
+        <c:axId val="444957160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5078,19 +5127,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244157384"/>
+        <c:crossAx val="521767416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5130,6 +5181,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5294,11 +5346,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="244353256"/>
-        <c:axId val="244353648"/>
+        <c:axId val="444944224"/>
+        <c:axId val="444945008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244353256"/>
+        <c:axId val="444944224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5320,13 +5372,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244353648"/>
+        <c:crossAx val="444945008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5334,7 +5387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244353648"/>
+        <c:axId val="444945008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5359,19 +5412,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244353256"/>
+        <c:crossAx val="444944224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5411,6 +5466,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5575,11 +5631,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="244155816"/>
-        <c:axId val="244154248"/>
+        <c:axId val="536560904"/>
+        <c:axId val="536564432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244155816"/>
+        <c:axId val="536560904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5601,13 +5657,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244154248"/>
+        <c:crossAx val="536564432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5615,7 +5672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244154248"/>
+        <c:axId val="536564432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5640,19 +5697,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244155816"/>
+        <c:crossAx val="536560904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7802,8 +7861,8 @@
   </sheetPr>
   <dimension ref="A1:AF686"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23823,7 +23882,7 @@
   </sheetPr>
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -26014,9 +26073,7 @@
                          if specialisation[s].lower() == k.lower()]) \
             + specialisation_artificial_max[(k, g)] &lt;= specialisation_max[k], \
             'max_spec%s_g%d' % (k, g)
-    if str(1558727) in STUDENTS:
-        problem += x[(str(pow(1289, 2) + 1592), g)] == x[(str(pow(2371, 2) + 542), g)]
-# Number from each ethnicity must be at least min (relaxed)
+    # Number from each ethnicity must be at least min (relaxed)
     for e in ETHNICITIES:
         problem += lpSum([x[(s, g)] for s in STUDENTS
                          if ethnicity[s].lower() == e.lower()]) \
@@ -26668,7 +26725,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{148C5B39-A1B9-4056-873E-86B917F8776B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0641ECB8-4F4E-4581-90AE-96C0B091B7ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>
